--- a/backend/oeps/data/dictionaries/Z_Dict.xlsx
+++ b/backend/oeps/data/dictionaries/Z_Dict.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z124"/>
+  <dimension ref="A1:Z121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,32 +2137,32 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>BedCnt</t>
+          <t>TotPopHh</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Homeless Shelter Available Bed Count</t>
+          <t>Total Population in Households</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Number of beds available to homeless individuals in a continuum of care available at the time of the census</t>
+          <t>Total number of people in households</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HomelessPop.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>HUD, 2018</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Department of Housing and Urban Development Homeless Census, 2018</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2172,14 +2172,10 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>38897</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>This is the taken by a team of individuals in a continuum of care in one day. It is difficult to measure homelessness at a local and Federal level as the population is relatively mobile, homelessness can be cyclical and there are visibility issues for the homeless community, so the annual point in time count was used as a proxy for homelessness in this dataset. Data was geocoded then spatially joined at the tract, ZCTA, state and county level to see where continuums of care are located and the availibility of temporary housing solutions.</t>
-        </is>
-      </c>
+          <t>7151776</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -2200,49 +2196,45 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>PntInTm</t>
+          <t>NonRelFhhP</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Total Individuals at a Shelter</t>
+          <t>% Nonrelatives in Family Households</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Number of housing-insecure individuals at a shelter on the day of the count</t>
+          <t>Percent of people living in family households that are not related to family</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HomelessPop.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>HUD, 2018</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Department of Housing and Urban Development Homeless Census, 2018</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>32603</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>This is the taken by a team of individuals in a continuum of care in one day. It is difficult to measure homelessness at a local and Federal level as the population is relatively mobile, homelessness can be cyclical and there are visibility issues for the homeless community, so the annual point in time count was used as a proxy for homelessness in this dataset. Data was geocoded then spatially joined at the tract, ZCTA, state and county level to see where continuums of care are located and the availibility of temporary housing solutions.</t>
-        </is>
-      </c>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2263,49 +2255,45 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>YrlyBedCnt</t>
+          <t>NonRelNfhhP</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Homeless Shelter Total Beds Available Annually</t>
+          <t>% Nonrelatives in Non-family Households</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Number of beds available to homeless populations in group quarters available year-round</t>
+          <t>Percent of people living in non-family households that are not related</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HomelessPop.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>HUD, 2018</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Department of Housing and Urban Development Homeless Census, 2018</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>37597</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>This is the taken by a team of individuals in a continuum of care in one day. It is difficult to measure homelessness at a local and Federal level as the population is relatively mobile, homelessness can be cyclical and there are visibility issues for the homeless community, so the annual point in time count was used as a proxy for homelessness in this dataset. Data was geocoded then spatially joined at the tract, ZCTA, state and county level to see where continuums of care are located and the availibility of temporary housing solutions.</t>
-        </is>
-      </c>
+          <t>25.61</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -2326,22 +2314,22 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>TotPopHh</t>
+          <t>TotWrkE</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Total Population in Households</t>
+          <t>Count of Working Population</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Total number of people in households</t>
+          <t>Estimated count of working population</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2361,7 +2349,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>7151776</t>
+          <t>3513856</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
@@ -2373,44 +2361,64 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>NonRelFhhP</t>
+          <t>NoHsP</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>% Nonrelatives in Family Households</t>
+          <t>% Population without High School Degree</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Percent of people living in family households that are not related to family</t>
+          <t>Percentage of population 25 years and over, less than a high school degree</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Other_Demographic_2018.md</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2420,10 +2428,14 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr"/>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
       <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -2434,8 +2446,16 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>x</t>
@@ -2444,32 +2464,32 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>NonRelNfhhP</t>
+          <t>DisbP</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>% Nonrelatives in Non-family Households</t>
+          <t>% Population with Disability</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Percent of people living in non-family households that are not related</t>
+          <t>Percentage of civilian non institutionalized population with a disability</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Other_Demographic_2018.md</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2479,11 +2499,15 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>25.61</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Data from 2000 Census downloaded at county level from NHGIS and aggregated upwards.</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2491,57 +2515,81 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>TotWrkE</t>
+          <t>WhiteP</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Count of Working Population</t>
+          <t>% White Population</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Estimated count of working population</t>
+          <t>Percentage of population with race identified as white alone</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>3513856</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr"/>
+          <t>56.2</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
       <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -2582,32 +2630,32 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>NoHsP</t>
+          <t>BlackP</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>% Population without High School Degree</t>
+          <t>% Black/African American Population</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Percentage of population 25 years and over, less than a high school degree</t>
+          <t>Percentage of population with race identified as Black or African American alone</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Other_Demographic_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2617,7 +2665,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>14.81</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -2633,8 +2681,16 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>x</t>
@@ -2650,35 +2706,39 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>DisbP</t>
+          <t>HispP</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>% Population with Disability</t>
+          <t>% Hispanic/Latinx Population</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Percentage of civilian non institutionalized population with a disability</t>
+          <t>Percentage of population with ethnicity identified as of Hispanic or Latinx origin</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Other_Demographic_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2688,15 +2748,15 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>12.7</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Data from 2000 Census downloaded at county level from NHGIS and aggregated upwards.</t>
-        </is>
-      </c>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2736,17 +2796,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>WhiteP</t>
+          <t>AmIndP</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>% White Population</t>
+          <t>% Native American/Alaska Native Population</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as white alone</t>
+          <t>Percentage of population with race identified as Native American or Alaska Native alone</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2771,7 +2831,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -2819,17 +2879,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>BlackP</t>
+          <t>AsianP</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>% Black/African American Population</t>
+          <t>% Asian Population</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Black or African American alone</t>
+          <t>Percentage of population with race identified as Asian alone</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2854,7 +2914,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>14.81</t>
+          <t>12.03</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -2902,17 +2962,17 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>HispP</t>
+          <t>PacIsP</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>% Hispanic/Latinx Population</t>
+          <t>% Native Hawaiian &amp; Other PI Population</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Percentage of population with ethnicity identified as of Hispanic or Latinx origin</t>
+          <t>Percentage of population with race identified as Native Hawaiian and Other Pacific Islander alone</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2937,7 +2997,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>25.95</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -2985,17 +3045,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>AmIndP</t>
+          <t>OtherP</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>% Native American/Alaska Native Population</t>
+          <t>% Other (race) Population</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Native American or Alaska Native alone</t>
+          <t>Percentage of Population with race not mentioned in any of the options above (includes two race or more races)</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3020,7 +3080,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>16.48</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3036,64 +3096,44 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>AsianP</t>
+          <t>DsmBlk</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>% Asian Population</t>
+          <t>Segregation: Dissimilarity (Black)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Asian alone</t>
+          <t>Dissimilarity index for Black and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -3103,15 +3143,20 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>12.03</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr"/>
+          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
+Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3119,64 +3164,44 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>PacIsP</t>
+          <t>IntrBlkWht</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>% Native Hawaiian &amp; Other PI Population</t>
+          <t>Segregation: Interaction (Black)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Native Hawaiian and Other Pacific Islander alone</t>
+          <t>Interaction index for Black and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3186,15 +3211,20 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr"/>
+          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
+Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3202,64 +3232,44 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>OtherP</t>
+          <t>IsoBlk</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>% Other (race) Population</t>
+          <t>Segregation: Isolation (Black)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Percentage of Population with race not mentioned in any of the options above (includes two race or more races)</t>
+          <t>Isolation index for Black and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3269,15 +3279,20 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>16.48</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr"/>
+          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
+Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3297,17 +3312,17 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>DsmBlk</t>
+          <t>DsmHsp</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Segregation: Dissimilarity (Black)</t>
+          <t>Segregation: Dissimilarity (Hispanic)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Dissimilarity index for Black and non-Hispanic White residents</t>
+          <t>Dissimilarity index for Hispanic and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3332,7 +3347,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -3365,17 +3380,17 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>IntrBlkWht</t>
+          <t>IntrHspWht</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Segregation: Interaction (Black)</t>
+          <t>Segregation: Interaction (Hispanic)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Interaction index for Black and non-Hispanic White residents</t>
+          <t>Interaction index for Hispanic and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3433,17 +3448,17 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>IsoBlk</t>
+          <t>IsoHsp</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Segregation: Isolation (Black)</t>
+          <t>Segregation: Isolation (Hispanic)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Isolation index for Black and non-Hispanic White residents</t>
+          <t>Isolation index for Hispanic and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3468,7 +3483,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -3501,17 +3516,17 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>DsmHsp</t>
+          <t>DsmAs</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Segregation: Dissimilarity (Hispanic)</t>
+          <t>Segregation: Dissimilarity (Asian)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Dissimilarity index for Hispanic and non-Hispanic White residents</t>
+          <t>Dissimilarity index for Asian and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3536,7 +3551,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -3569,17 +3584,17 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>IntrHspWht</t>
+          <t>IntrAsWht</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segregation: Interaction (Hispanic)</t>
+          <t>Segregation: Interaction (Asian)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Interaction index for Hispanic and non-Hispanic White residents</t>
+          <t>Area (in square meters) of park or green space in a state).</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3604,7 +3619,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -3637,17 +3652,17 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>IsoHsp</t>
+          <t>IsoAs</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Segregation: Isolation (Hispanic)</t>
+          <t>Segregation: Isolation (Asian)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Isolation index for Hispanic and non-Hispanic White residents</t>
+          <t>Isolation index for Asian and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3672,7 +3687,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -3696,7 +3711,11 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>x</t>
@@ -3705,55 +3724,46 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>DsmAs</t>
+          <t>TotVetPop</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Segregation: Dissimilarity (Asian)</t>
+          <t>Total Veteran Population</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Dissimilarity index for Asian and non-Hispanic White residents</t>
+          <t>Total Veteran population</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
-Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
-        </is>
-      </c>
+          <t>537713</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3764,7 +3774,11 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>x</t>
@@ -3773,32 +3787,32 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>IntrAsWht</t>
+          <t>VetP</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segregation: Interaction (Asian)</t>
+          <t>% Veteran Population</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Area (in square meters) of park or green space in a state).</t>
+          <t>Percent of population that are veterans</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>ACS 2017, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>American Community Survey 2013-2017 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3808,25 +3822,16 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
-Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
-        </is>
-      </c>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -3841,32 +3846,32 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>IsoAs</t>
+          <t>FqhcMinDis</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Segregation: Isolation (Asian)</t>
+          <t>Distance (mi) to nearest FQHC</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Isolation index for Asian and non-Hispanic White residents</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest FQHC, in miles</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>US Covid Atlas via HRSA, 2020</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3876,35 +3881,30 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>10.23</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
-Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
+          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
           <t>x</t>
@@ -3913,61 +3913,65 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>TotVetPop</t>
+          <t>FqhcTmDr</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Total Veteran Population</t>
+          <t>Driving time (min) to nearest FQHC</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Total Veteran population</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip FQHC destination centroid, in minutes</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>US Covid Atlas via HRSA, 2020</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>537713</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
+          <t>19.16</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
           <t>x</t>
@@ -3976,46 +3980,54 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>VetP</t>
+          <t>FqhcCntDr</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>% Veteran Population</t>
+          <t>Count of FQHCs (30-min drive)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Percent of population that are veterans</t>
+          <t>Count of FQHCs within a 30-minute driving threshold</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>ACS 2017, 5-Year; ACS 2012, 5-Year</t>
+          <t>US Covid Atlas via HRSA, 2020</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>American Community Survey 2013-2017 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4035,32 +4047,32 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>FqhcMinDis</t>
+          <t>MoudMinDis</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest FQHC</t>
+          <t>Distance (mi) to nearest MOUD (any)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest FQHC, in miles</t>
+          <t>Euclidean distance (miles) to nearest MOUD (all types)</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA, 2020</t>
+          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -4070,17 +4082,17 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>10.23</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
+          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
       </c>
     </row>
@@ -4102,32 +4114,32 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>FqhcTmDr</t>
+          <t>BupMinDis</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Driving time (min) to nearest FQHC</t>
+          <t>Distance (mi) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip FQHC destination centroid, in minutes</t>
+          <t>Euclidean distance (miles) to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA, 2020</t>
+          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4137,17 +4149,17 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>19.16</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
+          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
       </c>
     </row>
@@ -4169,52 +4181,52 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>FqhcCntDr</t>
+          <t>BupTmDr</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Count of FQHCs (30-min drive)</t>
+          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Count of FQHCs within a 30-minute driving threshold</t>
+          <t>Driving time (minutes) to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA, 2020</t>
+          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
+          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
       </c>
     </row>
@@ -4236,17 +4248,17 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>MoudMinDis</t>
+          <t>BupCntDr30</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest MOUD (any)</t>
+          <t>Count of Buprenorphine Providers (30-min drive)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest MOUD (all types)</t>
+          <t>Count of methadone providers in 30 minute drive time threshold</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4266,12 +4278,12 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>21</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -4303,17 +4315,17 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>BupMinDis</t>
+          <t>MetMinDis</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Buprenorphine Provider</t>
+          <t>Distance (mi) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest buprenorphine provider</t>
+          <t>Euclidean distance (miles) to nearest methadone provider</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4338,7 +4350,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>13.22</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -4370,17 +4382,17 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>BupTmDr</t>
+          <t>MetTmDr</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
+          <t>Driving Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Driving time (minutes) to nearest buprenorphine provider</t>
+          <t>Driving time (minutes) to nearest methadone provider</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4405,7 +4417,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27.39</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -4437,12 +4449,12 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>BupCntDr30</t>
+          <t>MetCntDr30</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min drive)</t>
+          <t>Count of Methadone Providers (30-min drive)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4472,7 +4484,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -4504,17 +4516,17 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>MetMinDis</t>
+          <t>NalMinDis</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Methadone Provider</t>
+          <t>Distance (mi) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest methadone provider</t>
+          <t>Euclidean distance (miles) to nearest naltrexone/Vivitrol provider</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4539,7 +4551,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>13.22</t>
+          <t>18.04</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -4571,17 +4583,17 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>MetTmDr</t>
+          <t>NalTmDr</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Methadone Provider</t>
+          <t>Driving Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Driving time (minutes) to nearest methadone provider</t>
+          <t>Driving time (minutes) to nearest naltrexone provider</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4606,7 +4618,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>27.39</t>
+          <t>35.34</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -4638,17 +4650,17 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>MetCntDr30</t>
+          <t>NalCntDr30</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (30-min drive)</t>
+          <t>Count of Naltrexone Providers (30-min drive)</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 30 minute drive time threshold</t>
+          <t>Count of naltrexone providers in 30 minute drive time threshold</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4673,7 +4685,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -4705,17 +4717,17 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>NalMinDis</t>
+          <t>BupTmWk</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Naltrexone Provider</t>
+          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest naltrexone/Vivitrol provider</t>
+          <t>Walking time (minutes) to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4740,7 +4752,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>18.04</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -4772,17 +4784,17 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>NalTmDr</t>
+          <t>BupCntWk60</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Naltrexone Provider</t>
+          <t>Count of Buprenorphine Providers (60-min walk)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Driving time (minutes) to nearest naltrexone provider</t>
+          <t>Count of buprenorphine providers in 60 minute walking time threshold</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4802,12 +4814,12 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>35.34</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -4839,17 +4851,17 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>NalCntDr30</t>
+          <t>BupCntWk30</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min drive)</t>
+          <t>Count of Buprenorphine Providers (30-min walk)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 30 minute drive time threshold</t>
+          <t>Count of buprenorphine providers in 30 minute walking time threshold</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4874,7 +4886,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -4906,17 +4918,17 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>BupTmWk</t>
+          <t>MetTmWk</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
+          <t>Walking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Walking time (minutes) to nearest buprenorphine provider</t>
+          <t>Walking time (minutes) to nearest methadone provider</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4941,7 +4953,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1744.66</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -4973,17 +4985,17 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>BupCntWk60</t>
+          <t>MetCntWk30</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (60-min walk)</t>
+          <t>Count of Methadone Providers (60-min walk)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 60 minute walking time threshold</t>
+          <t>Count of methadone providers in 60 minute walking time threshold</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5008,7 +5020,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -5040,17 +5052,17 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>BupCntWk30</t>
+          <t>MetCntWk60</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min walk)</t>
+          <t>Count of Methadone Providers (30-min walk)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 30 minute walking time threshold</t>
+          <t>Count of methadone providers in 30 minute walking time threshold</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5075,7 +5087,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -5107,17 +5119,17 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>MetTmWk</t>
+          <t>NalTmWk</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Methadone Provider</t>
+          <t>Walking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Walking time (minutes) to nearest methadone provider</t>
+          <t>Walking time (minutes) to nearest naltrexone provider</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5140,11 +5152,7 @@
           <t>number</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>1744.66</t>
-        </is>
-      </c>
+      <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
@@ -5174,17 +5182,17 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>MetCntWk30</t>
+          <t>NalCntWk60</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (60-min walk)</t>
+          <t>Count of Naltrexone Providers (60-min walk)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 60 minute walking time threshold</t>
+          <t>Count of naltrexone providers in 60 minute walking time threshold</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5241,17 +5249,17 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>MetCntWk60</t>
+          <t>NalCntWk30</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (30-min walk)</t>
+          <t>Count of Naltrexone Providers (30-min walk)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 30 minute walking time threshold</t>
+          <t>Count of naltrexone providers in 30 minute walking time threshold</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5308,17 +5316,17 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>NalTmWk</t>
+          <t>BupTmBk</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Naltrexone Provider</t>
+          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Walking time (minutes) to nearest naltrexone provider</t>
+          <t>Biking time (minutes) to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5341,7 +5349,11 @@
           <t>number</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Q68" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
@@ -5371,17 +5383,17 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>NalCntWk60</t>
+          <t>BupCntBk60</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (60-min walk)</t>
+          <t>Count of Buprenorphine Providers (60-min bike)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 60 minute walking time threshold</t>
+          <t>Count of buprenorphine providers in 60 minute biking time threshold</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5406,7 +5418,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
@@ -5438,17 +5450,17 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>NalCntWk30</t>
+          <t>BupCntBk30</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min walk)</t>
+          <t>Count of Buprenorphine Providers (30-min bike)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 30 minute walking time threshold</t>
+          <t>Count of buprenorphine providers in 30 minute biking time threshold</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5473,7 +5485,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -5505,17 +5517,17 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>BupTmBk</t>
+          <t>MetTmBk</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
+          <t>Biking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Biking time (minutes) to nearest buprenorphine provider</t>
+          <t>Biking time (minutes) to nearest methadone provider</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5540,7 +5552,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>148.18</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
@@ -5572,17 +5584,17 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>BupCntBk60</t>
+          <t>MetCntBk60</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (60-min bike)</t>
+          <t>Count of Methadone Providers (60-min bike)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 60 minute biking time threshold</t>
+          <t>Count of methadone providers in 60 minute biking time threshold</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5607,7 +5619,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -5639,17 +5651,17 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>BupCntBk30</t>
+          <t>MetCntBk30</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min bike)</t>
+          <t>Count of methadone providers (30-min bike)</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 30 minute biking time threshold</t>
+          <t>Count of methadone providers in 30 minute biking time threshold</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5674,7 +5686,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -5706,17 +5718,17 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>MetTmBk</t>
+          <t>NalTmBk</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Methadone Provider</t>
+          <t>Biking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Biking time (minutes) to nearest methadone provider</t>
+          <t>Biking time (minutes) to nearest naltrexone provider</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5741,7 +5753,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>148.18</t>
+          <t>165.18</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -5773,17 +5785,17 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>MetCntBk60</t>
+          <t>NalCntBk60</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (60-min bike)</t>
+          <t>Count of Naltrexone Providers (60-min bike)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 60 minute biking time threshold</t>
+          <t>Count of naltrexone providers in 60 minute biking time threshold</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5840,17 +5852,17 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>MetCntBk30</t>
+          <t>NalCntBk30</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Count of methadone providers (30-min bike)</t>
+          <t>Count of Naltrexone Providers (30-min bike)</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 30 minute biking time threshold</t>
+          <t>Count of naltrexone providers in 30 minute biking time threshold</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5907,32 +5919,32 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>NalTmBk</t>
+          <t>MhMinDis</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Naltrexone Provider</t>
+          <t>Distance (mi) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Biking time (minutes) to nearest naltrexone provider</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest mental health provider, in miles</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5942,17 +5954,17 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>165.18</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
+          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
       </c>
     </row>
@@ -5974,37 +5986,37 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>NalCntBk60</t>
+          <t>MhTmDr</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (60-min bike)</t>
+          <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 60 minute biking time threshold</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip mental health provider destination centroid, in minutes</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6014,12 +6026,12 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
+          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
       </c>
     </row>
@@ -6041,32 +6053,32 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>NalCntBk30</t>
+          <t>MhCntDr</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min bike)</t>
+          <t>Count of Mental Health Providers (30-min drive)</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 30 minute biking time threshold</t>
+          <t>Count of MH providers within a 30-minute driving threshold</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6076,17 +6088,17 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
+          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
       </c>
     </row>
@@ -6108,32 +6120,32 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>MhMinDis</t>
+          <t>OtpMinDis</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Mental Health Provider</t>
+          <t>Distance (mi) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest mental health provider, in miles</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest OTP service location, in miles</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>SAMSHA, 2021</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6143,7 +6155,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>13.12</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -6175,32 +6187,32 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>MhTmDr</t>
+          <t>OtpTmDr</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Mental Health Provider</t>
+          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip mental health provider destination centroid, in minutes</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip OTP destination centroid, in minutes</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>SAMSHA, 2021</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6210,14 +6222,10 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
@@ -6242,32 +6250,32 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>MhCntDr</t>
+          <t>OtpCntDr</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Count of Mental Health Providers (30-min drive)</t>
+          <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Count of MH providers within a 30-minute driving threshold</t>
+          <t>Count of OTPs within a 30-minute driving threshold</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>SAMSHA, 2021</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6277,14 +6285,10 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
@@ -6309,32 +6313,32 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>OtpMinDis</t>
+          <t>RxMinDis</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Opioid Treatment Program (OTP)</t>
+          <t>Distance (mi) to nearest Pharmacy</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest OTP service location, in miles</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest pharmacy, in miles</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>SAMSHA, 2021</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6344,7 +6348,7 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>13.12</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
@@ -6376,32 +6380,32 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>OtpTmDr</t>
+          <t>RxTmDr</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
+          <t xml:space="preserve">Driving Time (min) to nearest Pharmacy </t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip OTP destination centroid, in minutes</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip pharmacy destination centroid, in minutes</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>SAMSHA, 2021</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6411,10 +6415,14 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>27.39</t>
-        </is>
-      </c>
-      <c r="Q84" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+        </is>
+      </c>
       <c r="R84" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
@@ -6439,32 +6447,32 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>OtpCntDr</t>
+          <t>RxCntDr</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
+          <t>Count of Pharmacies (30-min drive)</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Count of OTPs within a 30-minute driving threshold</t>
+          <t>Count of pharmacies within a 30-minute driving threshold</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>SAMSHA, 2021</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6474,10 +6482,14 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr"/>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+        </is>
+      </c>
       <c r="R85" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
@@ -6502,32 +6514,32 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>RxMinDis</t>
+          <t>SutMinDis</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Pharmacy</t>
+          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest pharmacy, in miles</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest SUT service location, in miles</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6537,7 +6549,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
@@ -6569,32 +6581,32 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>RxTmDr</t>
+          <t>SutTmDr</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Driving Time (min) to nearest Pharmacy </t>
+          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip pharmacy destination centroid, in minutes</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip SUT destination centroid, in minutes</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6604,7 +6616,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.76</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
@@ -6636,32 +6648,32 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>RxCntDr</t>
+          <t>SutCntDr</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Count of Pharmacies (30-min drive)</t>
+          <t>Count of Substance Use Treatment (SUT) facility (30-min drive)</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Count of pharmacies within a 30-minute driving threshold</t>
+          <t>Count of SUT services within a 30-minute driving threshold</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6671,7 +6683,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
@@ -6703,32 +6715,32 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>SutMinDis</t>
+          <t>HospMinDis</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
+          <t>Distance (mi) to nearest Hospital</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest SUT service location, in miles</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest hospital, in miles</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6738,7 +6750,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
@@ -6770,32 +6782,32 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>SutTmDr</t>
+          <t>HospTmDr</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
+          <t>Driving time (min) to nearest Hospital</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip SUT destination centroid, in minutes</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip hospital destination centroid, in minutes</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6805,7 +6817,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>17.76</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
@@ -6837,32 +6849,32 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>SutCntDr</t>
+          <t>HospCntDr</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Count of Substance Use Treatment (SUT) facility (30-min drive)</t>
+          <t>Count of Hospitals (30-min drive)</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Count of SUT services within a 30-minute driving threshold</t>
+          <t>Count of hospitals within a 30-minute driving threshold</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6872,7 +6884,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
@@ -6904,54 +6916,51 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>HospMinDis</t>
+          <t>AlcTot</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Hospital</t>
+          <t>Total Alcohol Outlets</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest hospital, in miles</t>
+          <t>Total number of alcohol outlets</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>InfoGroup, 2018</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>421</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
+The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6971,32 +6980,32 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>HospTmDr</t>
+          <t>AlcDens</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Driving time (min) to nearest Hospital</t>
+          <t>Alcohol Outlets Density</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip hospital destination centroid, in minutes</t>
+          <t>Number of alcohol outlets per square mile</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>InfoGroup, 2018</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7006,19 +7015,16 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
+The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7038,54 +7044,51 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>HospCntDr</t>
+          <t>AlcPerCap</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Count of Hospitals (30-min drive)</t>
+          <t>Alcohol Outlets per Capita</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Count of hospitals within a 30-minute driving threshold</t>
+          <t>Number of alcohol outlets per capita</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>InfoGroup, 2018</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
+The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7093,44 +7096,64 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F95" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>AlcTot</t>
+          <t>TotUnits</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Total Alcohol Outlets</t>
+          <t>Total Occupied Housing Units</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Total number of alcohol outlets</t>
+          <t>Count of total occupied housing units</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>InfoGroup, 2018</t>
+          <t>ACS 2018, 5-Year; Census 2010; Social Explorer</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012; Social Explorer Historic Census Data on 2010 Geometries</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7140,13 +7163,12 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>874237</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
         </is>
       </c>
       <c r="R95" t="inlineStr"/>
@@ -7157,44 +7179,64 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>AlcDens</t>
+          <t>VacantP</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Alcohol Outlets Density</t>
+          <t>Vacant Housing Units %</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Number of alcohol outlets per square mile</t>
+          <t>Percentage of vacant housing units</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>InfoGroup, 2018</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5 Year Estimate; Social Explorer Historic Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7204,13 +7246,12 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
         </is>
       </c>
       <c r="R96" t="inlineStr"/>
@@ -7233,32 +7274,32 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>AlcPerCap</t>
+          <t>MobileP</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Alcohol Outlets per Capita</t>
+          <t>Mobile Homes %</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Number of alcohol outlets per capita</t>
+          <t>Percentage of total housing units categorized as mobile housing structures</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>InfoGroup, 2018</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7268,15 +7309,10 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
-        </is>
-      </c>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
     </row>
     <row r="98">
@@ -7285,49 +7321,29 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>TotUnits</t>
+          <t>LngTermP</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Total Occupied Housing Units</t>
+          <t>Long-Term Occupancy %</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Count of total occupied housing units</t>
+          <t>Percentage of population who moved into their current housing more than 20 years ago</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7337,29 +7353,25 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; Social Explorer</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012; Social Explorer Historic Census Data on 2010 Geometries</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>874237</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
-        </is>
-      </c>
+          <t>19.99</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -7368,49 +7380,29 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>VacantP</t>
+          <t>RentalP</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Vacant Housing Units %</t>
+          <t>Rentals %</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Percentage of vacant housing units</t>
+          <t>Percentage of occupied housing units that are rented</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -7420,12 +7412,12 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5 Year Estimate; Social Explorer Historic Data on 2010 Geographies</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7435,14 +7427,10 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>13.28</t>
-        </is>
-      </c>
-      <c r="Q99" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
-        </is>
-      </c>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -7463,17 +7451,17 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>MobileP</t>
+          <t>UnitDens</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Mobile Homes %</t>
+          <t>Housing Unit Density</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Percentage of total housing units categorized as mobile housing structures</t>
+          <t>Number of housing units per square mile of land area</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -7498,7 +7486,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>46.11</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr"/>
@@ -7522,32 +7510,32 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>LngTermP</t>
+          <t>NoIntP</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Long-Term Occupancy %</t>
+          <t>Households without Internet Access %</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Percentage of population who moved into their current housing more than 20 years ago</t>
+          <t>Percentage of Households without Internet access</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Internet_2019.md</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>ACS, 2019</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate</t>
+          <t>American Community Survey 2015-2019 5 Year Estimate</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7557,7 +7545,7 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>19.99</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr"/>
@@ -7581,32 +7569,32 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>RentalP</t>
+          <t>Ndvi</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Rentals %</t>
+          <t>NDVI Average</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Percentage of occupied housing units that are rented</t>
+          <t>Average normalized difference vegetation index, a measure of greenness used to determine the amount of vegetation in an area, value from all pixel values in each Census tract</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/NDVI.md</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>Sentinel-2 MSI, 2018</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate</t>
+          <t>Sentinel 2 MSI: MultiSpectral Instrument Level-1 C</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7616,10 +7604,14 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>37.28</t>
-        </is>
-      </c>
-      <c r="Q102" t="inlineStr"/>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Despite removing identified influences of cloud interferences, there may still be clouds or other atmospheric conditions that alter pixel values used in calculations. See the original source for greater documentation of these effects. Furthermore, summarizing NDVI to the census tract simplifies inter-census tract variability.</t>
+        </is>
+      </c>
       <c r="R102" t="inlineStr"/>
     </row>
     <row r="103">
@@ -7640,42 +7632,42 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>UnitDens</t>
+          <t>Ruca1</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Housing Unit Density</t>
+          <t>Primary RUCA Code</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Number of housing units per square mile of land area</t>
+          <t>Primary RUCA Code</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>46.11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr"/>
@@ -7699,42 +7691,42 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>NoIntP</t>
+          <t>Ruca2</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Households without Internet Access %</t>
+          <t>Secondary RUCA Code</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Percentage of Households without Internet access</t>
+          <t>Secondary RUCA Code</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Internet_2019.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>ACS, 2019</t>
+          <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>American Community Survey 2015-2019 5 Year Estimate</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr"/>
@@ -7758,179 +7750,235 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Ndvi</t>
+          <t>Rurality</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>NDVI Average</t>
+          <t>Urban-Suburban-Rural</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Average normalized difference vegetation index, a measure of greenness used to determine the amount of vegetation in an area, value from all pixel values in each Census tract</t>
+          <t>Urban/Suburban/Rural</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/NDVI.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Sentinel-2 MSI, 2018</t>
+          <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Sentinel 2 MSI: MultiSpectral Instrument Level-1 C</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="Q105" t="inlineStr">
-        <is>
-          <t>Despite removing identified influences of cloud interferences, there may still be clouds or other atmospheric conditions that alter pixel values used in calculations. See the original source for greater documentation of these effects. Furthermore, summarizing NDVI to the census tract simplifies inter-census tract variability.</t>
-        </is>
-      </c>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Environment</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Ruca1</t>
+          <t>PovP</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Primary RUCA Code</t>
+          <t>Poverty %</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Primary RUCA Code</t>
+          <t>Number of individuals earning below the poverty income threshold as a percentage of the total population</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
+          <t>16.6</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Environment</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F107" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Ruca2</t>
+          <t>UnempP</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Secondary RUCA Code</t>
+          <t>Unemployment %</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Secondary RUCA Code</t>
+          <t>The number of unemployed individuals as a percentage of the civilian labor force</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F108" t="inlineStr">
         <is>
           <t>x</t>
@@ -7939,42 +7987,42 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Rurality</t>
+          <t>MedInc</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Urban-Suburban-Rural</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural</t>
+          <t>Median income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>34148</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr"/>
@@ -7986,21 +8034,9 @@
           <t>Economic</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
           <t>x</t>
@@ -8011,24 +8047,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>PovP</t>
+          <t>PciE</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Poverty %</t>
+          <t>Per Capita Income</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Number of individuals earning below the poverty income threshold as a percentage of the total population</t>
+          <t>Per capita income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -8038,34 +8070,26 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>16.6</t>
-        </is>
-      </c>
-      <c r="Q109" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
-        </is>
-      </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
-        </is>
-      </c>
+          <t>36888</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8073,21 +8097,9 @@
           <t>Economic</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
           <t>x</t>
@@ -8098,39 +8110,35 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>UnempP</t>
+          <t>GiniCoeff</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Unemployment %</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>The number of unemployed individuals as a percentage of the civilian labor force</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8140,19 +8148,11 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="Q110" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
-        </is>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
-        </is>
-      </c>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8163,11 +8163,7 @@
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
           <t>x</t>
@@ -8176,45 +8172,49 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>MedInc</t>
+          <t>EduP</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Median Income</t>
+          <t>Employed % - Education</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Median income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
+          <t>Percentage of population employed in educational services industry</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>34148</t>
-        </is>
-      </c>
-      <c r="Q111" t="inlineStr"/>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
+        </is>
+      </c>
       <c r="R111" t="inlineStr"/>
     </row>
     <row r="112">
@@ -8226,11 +8226,7 @@
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
           <t>x</t>
@@ -8239,45 +8235,49 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>PciE</t>
+          <t>HghRskP</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Per Capita Income</t>
+          <t>Employed % - High Risk of Injury</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Per capita income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
+          <t>Percentage of population employed in following industries: agriculture, forestry, fishing and hunting, mining, quarrying, oil and gas extraction, construction, manufacturing, utilities</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>36888</t>
-        </is>
-      </c>
-      <c r="Q112" t="inlineStr"/>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
+        </is>
+      </c>
       <c r="R112" t="inlineStr"/>
     </row>
     <row r="113">
@@ -8289,11 +8289,7 @@
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
           <t>x</t>
@@ -8302,32 +8298,32 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>GiniCoeff</t>
+          <t>HltCrP</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Employed % - Health Care</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Percentage of population employed in health care and social assistance industries</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8337,10 +8333,14 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="Q113" t="inlineStr"/>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
+        </is>
+      </c>
       <c r="R113" t="inlineStr"/>
     </row>
     <row r="114">
@@ -8361,17 +8361,17 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>EduP</t>
+          <t>RetailP</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Employed % - Education</t>
+          <t>Employed % - Retail</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Percentage of population employed in educational services industry</t>
+          <t>Percentage of population employed in retail trade industry</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
@@ -8424,22 +8424,22 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>HghRskP</t>
+          <t>EssnWrkE</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Employed % - High Risk of Injury</t>
+          <t>Count of Essential Workers</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Percentage of population employed in following industries: agriculture, forestry, fishing and hunting, mining, quarrying, oil and gas extraction, construction, manufacturing, utilities</t>
+          <t>Estimated count of population employed in essential occupations.</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byOccupation_2018.md</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -8454,19 +8454,15 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Q115" t="inlineStr">
-        <is>
-          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
-        </is>
-      </c>
+          <t>1509709</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
     </row>
     <row r="116">
@@ -8487,22 +8483,22 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>HltCrP</t>
+          <t>EssnWrkP</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Employed % - Health Care</t>
+          <t>Essential Workers %</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Percentage of population employed in health care and social assistance industries</t>
+          <t>Percentage of population employed in essential occupations.</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byOccupation_2018.md</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -8522,20 +8518,16 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>13.13</t>
-        </is>
-      </c>
-      <c r="Q116" t="inlineStr">
-        <is>
-          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
-        </is>
-      </c>
+          <t>42.96</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
@@ -8550,32 +8542,32 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>RetailP</t>
+          <t>SviTh1</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Employed % - Retail</t>
+          <t>Social Vulnerability Index (SVI) 1</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Percentage of population employed in retail trade industry</t>
+          <t>SVI Ranking, Theme 1: Socioeconomic</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI_2018.md</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>CDC, 2018</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>Centers for Disease Control, 2018</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8585,12 +8577,12 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>11.7</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
+          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
         </is>
       </c>
       <c r="R117" t="inlineStr"/>
@@ -8598,7 +8590,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
@@ -8613,51 +8605,55 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>EssnWrkE</t>
+          <t>SviTh2</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Count of Essential Workers</t>
+          <t>Social Vulnerability Index (SVI) 2</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Estimated count of population employed in essential occupations.</t>
+          <t>SVI Ranking, Theme 2: Household Composition &amp; Disability</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byOccupation_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI_2018.md</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>CDC, 2018</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>Centers for Disease Control, 2018</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>1509709</t>
-        </is>
-      </c>
-      <c r="Q118" t="inlineStr"/>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
+        </is>
+      </c>
       <c r="R118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -8672,32 +8668,32 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>EssnWrkP</t>
+          <t>SviTh3</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Essential Workers %</t>
+          <t>Social Vulnerability Index (SVI) 3</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Percentage of population employed in essential occupations.</t>
+          <t>SVI Ranking, Theme 3: Minority Status &amp; Language</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byOccupation_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI_2018.md</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>CDC, 2018</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>Centers for Disease Control, 2018</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8707,10 +8703,14 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>42.96</t>
-        </is>
-      </c>
-      <c r="Q119" t="inlineStr"/>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
+        </is>
+      </c>
       <c r="R119" t="inlineStr"/>
     </row>
     <row r="120">
@@ -8731,17 +8731,17 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>SviTh1</t>
+          <t>SviTh4</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 1</t>
+          <t>Social Vulnerability Index (SVI) 4</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>SVI Ranking, Theme 1: Socioeconomic</t>
+          <t>SVI Ranking, Theme 4: Housing Type &amp; Transportation</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
@@ -8794,17 +8794,17 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>SviTh2</t>
+          <t>SviSmryRnk</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 2</t>
+          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>SVI Ranking, Theme 2: Household Composition &amp; Disability</t>
+          <t>Overall summary ranking</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -8829,7 +8829,7 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
@@ -8838,195 +8838,6 @@
         </is>
       </c>
       <c r="R121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>SviTh3</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) 3</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>SVI Ranking, Theme 3: Minority Status &amp; Language</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI_2018.md</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>CDC, 2018</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018</t>
-        </is>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="Q122" t="inlineStr">
-        <is>
-          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
-        </is>
-      </c>
-      <c r="R122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>SviTh4</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) 4</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>SVI Ranking, Theme 4: Housing Type &amp; Transportation</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI_2018.md</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>CDC, 2018</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018</t>
-        </is>
-      </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="Q123" t="inlineStr">
-        <is>
-          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
-        </is>
-      </c>
-      <c r="R123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>SviSmryRnk</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Overall summary ranking</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI_2018.md</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>CDC, 2018</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018</t>
-        </is>
-      </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="Q124" t="inlineStr">
-        <is>
-          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
-        </is>
-      </c>
-      <c r="R124" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/oeps/data/dictionaries/Z_Dict.xlsx
+++ b/backend/oeps/data/dictionaries/Z_Dict.xlsx
@@ -433,9 +433,9 @@
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="30" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
     <col width="25" customWidth="1" min="11" max="11"/>
     <col width="25" customWidth="1" min="12" max="12"/>
     <col width="25" customWidth="1" min="13" max="13"/>
@@ -443,7 +443,8 @@
     <col width="25" customWidth="1" min="15" max="15"/>
     <col width="25" customWidth="1" min="16" max="16"/>
     <col width="25" customWidth="1" min="17" max="17"/>
-    <col width="100" customWidth="1" min="18" max="18"/>
+    <col width="25" customWidth="1" min="18" max="18"/>
+    <col width="100" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -479,65 +480,69 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Analysis</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Longitudinal</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Metadata Location</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Source Long</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>OEPS v1 Table</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Example</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Data Limitations</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
       </c>
-      <c r="S1" s="1" t="n"/>
       <c r="T1" s="1" t="n"/>
       <c r="U1" s="1" t="n"/>
       <c r="V1" s="1" t="n"/>
@@ -577,45 +582,46 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>HEROP_ID</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>HEROP_ID</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>A derived unique id corresponding to the relevant geographic unit.</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Healthy Regions &amp; Policies Lab, UIUC</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
+      <c r="N2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>050US01001-2018</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
         <is>
           <t>The HEROP_ID is generated as follows: Summary Level Code + "US" + GEOID + “-” + Year</t>
         </is>
@@ -652,45 +658,46 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>GEOID</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>GEOID</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Unique identifer for the geography unit to which this value should be attached</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
         <is>
           <t>Tiger/Line 2018; Tiger/Line 2010</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
+      <c r="N3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>36061</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -708,53 +715,54 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
         <is>
           <t>AreaSqMi</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Land Area (Square Miles)</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Land area of geography in sq miles</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>InfoGroup, 2018</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>66452.74</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
 The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -787,57 +795,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>TotPop</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Total Population</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Total population</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>1632480</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>For more information about how these data have been used in homelessness and housing stability research, please refer to https://www.census.gov/newsroom/press-releases/2020/special-operations-homelessness.html or https://www.americanprogress.org/issues/poverty/reports/2020/10/05/491122/count-people-where-they-are/.</t>
         </is>
@@ -874,57 +883,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>Age18_64</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Population: Age 18-64</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Total adult population under age 65</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>1139347</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -957,57 +967,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>Age0_4</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Population: Age 0-4</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Total population between age 0-4</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>79897</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1040,57 +1051,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>Age5_14</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Population: Age 5-14</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Total population between age 5-14</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>122034</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1123,57 +1135,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>Age15_19</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Population: Age 15-19</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Total population between age 15-19</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>68706</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1206,57 +1219,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>Age20_24</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Population: Age 20-24</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Total population between age 20-24</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>114772</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1289,57 +1303,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>Age15_44</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Population: Age 15-44</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Total population between age 15-44</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>784568</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1372,57 +1387,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>Age55_59</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Population: Age 55-59</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>Total population between age 55-59</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>94082</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1455,57 +1471,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>Age60_64</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>Population: Age 60-64</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>Total population between age 60-64</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>90711</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1538,57 +1555,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>AgeOv65</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Population: Age 65+</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Total population at or over age 65</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>257362</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1621,57 +1639,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>Und45P</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>% Population: Age under 45</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t xml:space="preserve">	Percentage of population below 45 years of age</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>60.43</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1704,57 +1723,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>Ovr65P</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>% Population: Age 65+</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	Percentage of population over 65</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>Percentage of population over 65</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>15.77</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1787,57 +1807,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>ChildrenP</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Children %</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>Percentage of population under age 18</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>0.14</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1867,48 +1888,49 @@
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
         <is>
           <t>Age45_49</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Population: Age 45-49</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Total population between age 45-49</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; 2010 Decennial Census; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>467768</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr">
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
         <is>
           <t>1990 and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and aggregated upwards.</t>
         </is>
@@ -1942,48 +1964,49 @@
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
         <is>
           <t>Age50_54</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Population: Age 50-54</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>Total population between age 50-54</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; 2010 Decennial Census; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>476486</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr">
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
         <is>
           <t>1990 and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and aggregated upwards.</t>
         </is>
@@ -2009,48 +2032,49 @@
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
         <is>
           <t>AgeOv18</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Population: Age 18+</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>Total population at or over age 18</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; 2010 Decennial Census</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>5661461</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2067,53 +2091,54 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>A15_24P</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>% Population: Age 15-24</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>Percentage of population between ages of 15 &amp; 24</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5-Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>7.33</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr">
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
         <is>
           <t>1980, 1990, and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and crosswalked to 2010 census tracts using the Longitudinal Tract Database crosswalk files. They were then crosswalked to 2010 ZIPs using the 2012 1st quarter TRACT-ZIP crosswalk from Housing and Urban Development. For more on the tract crosswalk files, see https://s4.ad.brown.edu/Projects/Diversity/researcher/bridging.htm. For more on the TRACT-ZIP crosswalk, see https://www.huduser.gov/portal/datasets/usps_crosswalk.html</t>
         </is>
@@ -2135,48 +2160,49 @@
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
         <is>
           <t>TotPopHh</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Total Population in Households</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>Total number of people in households</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>7151776</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2194,48 +2220,49 @@
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
         <is>
           <t>NonRelFhhP</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>% Nonrelatives in Family Households</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>Percent of people living in family households that are not related to family</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>3.35</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2253,48 +2280,49 @@
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
         <is>
           <t>NonRelNfhhP</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>% Nonrelatives in Non-family Households</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>Percent of people living in non-family households that are not related</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>25.61</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2302,10 +2330,26 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>x</t>
@@ -2314,46 +2358,55 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>TotWrkE</t>
+          <t>x</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Count of Working Population</t>
+          <t>NoHsP</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Estimated count of working population</t>
+          <t>% Population without High School Degree</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>Percentage of population 25 years and over, less than a high school degree</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Other_Demographic_2018.md</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>integer</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; IPUMS NHGIS</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>3513856</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2361,16 +2414,8 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
           <t>x</t>
@@ -2386,57 +2431,54 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>NoHsP</t>
-        </is>
-      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>% Population without High School Degree</t>
+          <t>DisbP</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Percentage of population 25 years and over, less than a high school degree</t>
+          <t>% Population with Disability</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
+          <t>Percentage of civilian non institutionalized population with a disability</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Other_Demographic_2018.md</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; IPUMS NHGIS</t>
-        </is>
-      </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>13.01</t>
-        </is>
-      </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Data from 2000 Census downloaded at county level from NHGIS and aggregated upwards.</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2444,8 +2486,16 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>x</t>
@@ -2464,50 +2514,55 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>DisbP</t>
+          <t>x</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>% Population with Disability</t>
+          <t>WhiteP</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Percentage of civilian non institutionalized population with a disability</t>
+          <t>% White Population</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Other_Demographic_2018.md</t>
+          <t>Percentage of population with race identified as white alone</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>12.7</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>56.2</t>
+        </is>
+      </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Data from 2000 Census downloaded at county level from NHGIS and aggregated upwards.</t>
-        </is>
-      </c>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2540,57 +2595,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>WhiteP</t>
+          <t>x</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>% White Population</t>
+          <t>BlackP</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as white alone</t>
+          <t>% Black/African American Population</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
+          <t>Percentage of population with race identified as Black or African American alone</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
       <c r="Q28" t="inlineStr">
         <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2623,57 +2679,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>BlackP</t>
+          <t>x</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>% Black/African American Population</t>
+          <t>HispP</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Black or African American alone</t>
+          <t>% Hispanic/Latinx Population</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
+          <t>Percentage of population with ethnicity identified as of Hispanic or Latinx origin</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>14.81</t>
-        </is>
-      </c>
       <c r="Q29" t="inlineStr">
         <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2706,57 +2763,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>HispP</t>
+          <t>x</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>% Hispanic/Latinx Population</t>
+          <t>AmIndP</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Percentage of population with ethnicity identified as of Hispanic or Latinx origin</t>
+          <t>% Native American/Alaska Native Population</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
+          <t>Percentage of population with race identified as Native American or Alaska Native alone</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>25.95</t>
-        </is>
-      </c>
       <c r="Q30" t="inlineStr">
         <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2789,57 +2847,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>AmIndP</t>
+          <t>x</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>% Native American/Alaska Native Population</t>
+          <t>AsianP</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Native American or Alaska Native alone</t>
+          <t>% Asian Population</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
+          <t>Percentage of population with race identified as Asian alone</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
       <c r="Q31" t="inlineStr">
         <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2872,57 +2931,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>AsianP</t>
+          <t>x</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>% Asian Population</t>
+          <t>PacIsP</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Asian alone</t>
+          <t>% Native Hawaiian &amp; Other PI Population</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
+          <t>Percentage of population with race identified as Native Hawaiian and Other Pacific Islander alone</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>12.03</t>
-        </is>
-      </c>
       <c r="Q32" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2955,57 +3015,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>PacIsP</t>
+          <t>x</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>% Native Hawaiian &amp; Other PI Population</t>
+          <t>OtherP</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Native Hawaiian and Other Pacific Islander alone</t>
+          <t>% Other (race) Population</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
+          <t>Percentage of Population with race not mentioned in any of the options above (includes two race or more races)</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
       <c r="Q33" t="inlineStr">
         <is>
+          <t>16.48</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3013,82 +3074,68 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>OtherP</t>
-        </is>
-      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>% Other (race) Population</t>
+          <t>DsmBlk</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Percentage of Population with race not mentioned in any of the options above (includes two race or more races)</t>
+          <t>Segregation: Dissimilarity (Black)</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
+          <t>Dissimilarity index for Black and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
+          <t>ACS 2018, 5-Year</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>16.48</t>
-        </is>
-      </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr"/>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
+Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3106,52 +3153,53 @@
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>DsmBlk</t>
-        </is>
-      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Segregation: Dissimilarity (Black)</t>
+          <t>IntrBlkWht</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Dissimilarity index for Black and non-Hispanic White residents</t>
+          <t>Segregation: Interaction (Black)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
+          <t>Interaction index for Black and non-Hispanic White residents</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
       <c r="Q35" t="inlineStr">
         <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
           <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
 Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
@@ -3174,52 +3222,53 @@
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>IntrBlkWht</t>
-        </is>
-      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Segregation: Interaction (Black)</t>
+          <t>IsoBlk</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Interaction index for Black and non-Hispanic White residents</t>
+          <t>Segregation: Isolation (Black)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
+          <t>Isolation index for Black and non-Hispanic White residents</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
       <c r="Q36" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
           <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
 Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
@@ -3242,52 +3291,53 @@
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>IsoBlk</t>
-        </is>
-      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Segregation: Isolation (Black)</t>
+          <t>DsmHsp</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Isolation index for Black and non-Hispanic White residents</t>
+          <t>Segregation: Dissimilarity (Hispanic)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
+          <t>Dissimilarity index for Hispanic and non-Hispanic White residents</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
       <c r="Q37" t="inlineStr">
         <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
           <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
 Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
@@ -3310,52 +3360,53 @@
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>DsmHsp</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Segregation: Dissimilarity (Hispanic)</t>
+          <t>IntrHspWht</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Dissimilarity index for Hispanic and non-Hispanic White residents</t>
+          <t>Segregation: Interaction (Hispanic)</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
+          <t>Interaction index for Hispanic and non-Hispanic White residents</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
       <c r="Q38" t="inlineStr">
         <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
           <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
 Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
@@ -3378,52 +3429,53 @@
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>IntrHspWht</t>
-        </is>
-      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Segregation: Interaction (Hispanic)</t>
+          <t>IsoHsp</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Interaction index for Hispanic and non-Hispanic White residents</t>
+          <t>Segregation: Isolation (Hispanic)</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
+          <t>Isolation index for Hispanic and non-Hispanic White residents</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
       <c r="Q39" t="inlineStr">
         <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
           <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
 Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
@@ -3446,52 +3498,53 @@
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>IsoHsp</t>
-        </is>
-      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Segregation: Isolation (Hispanic)</t>
+          <t>DsmAs</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Isolation index for Hispanic and non-Hispanic White residents</t>
+          <t>Segregation: Dissimilarity (Asian)</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
+          <t>Dissimilarity index for Asian and non-Hispanic White residents</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="N40" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
       <c r="Q40" t="inlineStr">
         <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
           <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
 Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
@@ -3514,52 +3567,53 @@
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>DsmAs</t>
-        </is>
-      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Segregation: Dissimilarity (Asian)</t>
+          <t>IntrAsWht</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Dissimilarity index for Asian and non-Hispanic White residents</t>
+          <t>Segregation: Interaction (Asian)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
+          <t>Area (in square meters) of park or green space in a state).</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="N41" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
       <c r="Q41" t="inlineStr">
         <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
           <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
 Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
@@ -3582,52 +3636,53 @@
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>IntrAsWht</t>
-        </is>
-      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segregation: Interaction (Asian)</t>
+          <t>IsoAs</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Area (in square meters) of park or green space in a state).</t>
+          <t>Segregation: Isolation (Asian)</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
+          <t>Isolation index for Asian and non-Hispanic White residents</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="N42" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
       <c r="Q42" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
           <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
 Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
@@ -3643,64 +3698,60 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>IsoAs</t>
-        </is>
-      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Segregation: Isolation (Asian)</t>
+          <t>TotVetPop</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Isolation index for Asian and non-Hispanic White residents</t>
+          <t>Total Veteran Population</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
+          <t>Total Veteran population</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>number</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
-Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
-        </is>
-      </c>
+          <t>537713</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3722,111 +3773,117 @@
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>TotVetPop</t>
-        </is>
-      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Total Veteran Population</t>
+          <t>VetP</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Total Veteran population</t>
+          <t>% Veteran Population</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
+          <t>Percent of population that are veterans</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
-        </is>
-      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>integer</t>
+          <t>ACS 2017, 5-Year; ACS 2012, 5-Year</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>American Community Survey 2013-2017 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>537713</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr"/>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
       <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VetP</t>
-        </is>
-      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>% Veteran Population</t>
+          <t>FqhcMinDis</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Percent of population that are veterans</t>
+          <t>Distance (mi) to nearest FQHC</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest FQHC, in miles</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>ACS 2017, 5-Year; ACS 2012, 5-Year</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>American Community Survey 2013-2017 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
+          <t>US Covid Atlas via HRSA, 2020</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3843,53 +3900,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>FqhcMinDis</t>
-        </is>
-      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest FQHC</t>
+          <t>FqhcTmDr</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest FQHC, in miles</t>
+          <t>Driving time (min) to nearest FQHC</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip FQHC destination centroid, in minutes</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>US Covid Atlas via HRSA, 2020</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="N46" t="inlineStr">
         <is>
           <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>10.23</t>
-        </is>
-      </c>
       <c r="Q46" t="inlineStr">
         <is>
+          <t>19.16</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -3911,52 +3973,53 @@
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>FqhcTmDr</t>
-        </is>
-      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Driving time (min) to nearest FQHC</t>
+          <t>FqhcCntDr</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip FQHC destination centroid, in minutes</t>
+          <t>Count of FQHCs (30-min drive)</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
+          <t>Count of FQHCs within a 30-minute driving threshold</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>US Covid Atlas via HRSA, 2020</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="N47" t="inlineStr">
         <is>
           <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>19.16</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -3978,54 +4041,55 @@
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>FqhcCntDr</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Count of FQHCs (30-min drive)</t>
+          <t>MoudMinDis</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Count of FQHCs within a 30-minute driving threshold</t>
+          <t>Distance (mi) to nearest MOUD (any)</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+          <t>Euclidean distance (miles) to nearest MOUD (all types)</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA, 2020</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>integer</t>
+          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
+          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
       </c>
     </row>
@@ -4045,52 +4109,53 @@
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>MoudMinDis</t>
-        </is>
-      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest MOUD (any)</t>
+          <t>BupMinDis</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest MOUD (all types)</t>
+          <t>Distance (mi) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
+          <t>Euclidean distance (miles) to nearest buprenorphine provider</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="N49" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>0.81</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4111,53 +4176,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>BupMinDis</t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Buprenorphine Provider</t>
+          <t>BupTmDr</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest buprenorphine provider</t>
+          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
+          <t>Driving time (minutes) to nearest buprenorphine provider</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="N50" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
       <c r="Q50" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4179,52 +4249,53 @@
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>BupTmDr</t>
-        </is>
-      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
+          <t>BupCntDr30</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Driving time (minutes) to nearest buprenorphine provider</t>
+          <t>Count of Buprenorphine Providers (30-min drive)</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
+          <t>Count of methadone providers in 30 minute drive time threshold</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4246,52 +4317,53 @@
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>BupCntDr30</t>
-        </is>
-      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min drive)</t>
+          <t>MetMinDis</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 30 minute drive time threshold</t>
+          <t>Distance (mi) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
+          <t>Euclidean distance (miles) to nearest methadone provider</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4312,53 +4384,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>MetMinDis</t>
-        </is>
-      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Methadone Provider</t>
+          <t>MetTmDr</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest methadone provider</t>
+          <t>Driving Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
+          <t>Driving time (minutes) to nearest methadone provider</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="N53" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>13.22</t>
-        </is>
-      </c>
       <c r="Q53" t="inlineStr">
         <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr">
+      <c r="S53" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4380,52 +4457,53 @@
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>MetTmDr</t>
-        </is>
-      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Methadone Provider</t>
+          <t>MetCntDr30</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Driving time (minutes) to nearest methadone provider</t>
+          <t>Count of Methadone Providers (30-min drive)</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
+          <t>Count of methadone providers in 30 minute drive time threshold</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="N54" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>27.39</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr">
+      <c r="S54" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4447,52 +4525,53 @@
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>MetCntDr30</t>
-        </is>
-      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (30-min drive)</t>
+          <t>NalMinDis</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 30 minute drive time threshold</t>
+          <t>Distance (mi) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
+          <t>Euclidean distance (miles) to nearest naltrexone/Vivitrol provider</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="N55" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr">
+      <c r="S55" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4513,53 +4592,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>NalMinDis</t>
-        </is>
-      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Naltrexone Provider</t>
+          <t>NalTmDr</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest naltrexone/Vivitrol provider</t>
+          <t>Driving Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
+          <t>Driving time (minutes) to nearest naltrexone provider</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="N56" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="P56" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>18.04</t>
-        </is>
-      </c>
       <c r="Q56" t="inlineStr">
         <is>
+          <t>35.34</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
+      <c r="S56" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4581,52 +4665,53 @@
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>NalTmDr</t>
-        </is>
-      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Naltrexone Provider</t>
+          <t>NalCntDr30</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Driving time (minutes) to nearest naltrexone provider</t>
+          <t>Count of Naltrexone Providers (30-min drive)</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
+          <t>Count of naltrexone providers in 30 minute drive time threshold</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="N57" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>35.34</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4647,53 +4732,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>NalCntDr30</t>
-        </is>
-      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min drive)</t>
+          <t>BupTmWk</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 30 minute drive time threshold</t>
+          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
+          <t>Walking time (minutes) to nearest buprenorphine provider</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="N58" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
       <c r="P58" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
+      <c r="R58" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4715,52 +4805,53 @@
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>BupTmWk</t>
-        </is>
-      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
+          <t>BupCntWk60</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Walking time (minutes) to nearest buprenorphine provider</t>
+          <t>Count of Buprenorphine Providers (60-min walk)</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
+          <t>Count of buprenorphine providers in 60 minute walking time threshold</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="N59" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4782,52 +4873,53 @@
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>BupCntWk60</t>
-        </is>
-      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (60-min walk)</t>
+          <t>BupCntWk30</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 60 minute walking time threshold</t>
+          <t>Count of Buprenorphine Providers (30-min walk)</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
+          <t>Count of buprenorphine providers in 30 minute walking time threshold</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="N60" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="P60" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
+      <c r="Q60" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
+      <c r="R60" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr">
+      <c r="S60" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4848,53 +4940,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>BupCntWk30</t>
-        </is>
-      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min walk)</t>
+          <t>MetTmWk</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 30 minute walking time threshold</t>
+          <t>Walking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
+          <t>Walking time (minutes) to nearest methadone provider</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="N61" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
+          <t>1744.66</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R61" t="inlineStr">
+      <c r="S61" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4916,52 +5013,53 @@
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>MetTmWk</t>
-        </is>
-      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Methadone Provider</t>
+          <t>MetCntWk30</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Walking time (minutes) to nearest methadone provider</t>
+          <t>Count of Methadone Providers (60-min walk)</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
+          <t>Count of methadone providers in 60 minute walking time threshold</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="N62" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>1744.66</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R62" t="inlineStr">
+      <c r="S62" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4983,52 +5081,53 @@
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>MetCntWk30</t>
-        </is>
-      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (60-min walk)</t>
+          <t>MetCntWk60</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 60 minute walking time threshold</t>
+          <t>Count of Methadone Providers (30-min walk)</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
+          <t>Count of methadone providers in 30 minute walking time threshold</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="N63" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr">
+      <c r="Q63" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
+      <c r="R63" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr">
+      <c r="S63" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5049,53 +5148,54 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>MetCntWk60</t>
-        </is>
-      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (30-min walk)</t>
+          <t>NalTmWk</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 30 minute walking time threshold</t>
+          <t>Walking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
+          <t>Walking time (minutes) to nearest naltrexone provider</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="N64" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R64" t="inlineStr">
+      <c r="S64" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5117,48 +5217,53 @@
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>NalTmWk</t>
-        </is>
-      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Naltrexone Provider</t>
+          <t>NalCntWk60</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Walking time (minutes) to nearest naltrexone provider</t>
+          <t>Count of Naltrexone Providers (60-min walk)</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
+          <t>Count of naltrexone providers in 60 minute walking time threshold</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="N65" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
       <c r="Q65" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr">
+      <c r="S65" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5180,52 +5285,53 @@
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>NalCntWk60</t>
-        </is>
-      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (60-min walk)</t>
+          <t>NalCntWk30</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 60 minute walking time threshold</t>
+          <t>Count of Naltrexone Providers (30-min walk)</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
+          <t>Count of naltrexone providers in 30 minute walking time threshold</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="N66" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="P66" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P66" t="inlineStr">
+      <c r="Q66" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr">
+      <c r="R66" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R66" t="inlineStr">
+      <c r="S66" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5246,53 +5352,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>NalCntWk30</t>
-        </is>
-      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min walk)</t>
+          <t>BupTmBk</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 30 minute walking time threshold</t>
+          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
+          <t>Biking time (minutes) to nearest buprenorphine provider</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="N67" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
       <c r="P67" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr">
+      <c r="R67" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R67" t="inlineStr">
+      <c r="S67" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5314,52 +5425,53 @@
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>BupTmBk</t>
-        </is>
-      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
+          <t>BupCntBk60</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Biking time (minutes) to nearest buprenorphine provider</t>
+          <t>Count of Buprenorphine Providers (60-min bike)</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
+          <t>Count of buprenorphine providers in 60 minute biking time threshold</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="N68" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R68" t="inlineStr">
+      <c r="S68" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5381,52 +5493,53 @@
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>BupCntBk60</t>
-        </is>
-      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (60-min bike)</t>
+          <t>BupCntBk30</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 60 minute biking time threshold</t>
+          <t>Count of Buprenorphine Providers (30-min bike)</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
+          <t>Count of buprenorphine providers in 30 minute biking time threshold</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="N69" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="P69" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="Q69" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R69" t="inlineStr">
+      <c r="S69" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5447,53 +5560,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>BupCntBk30</t>
-        </is>
-      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min bike)</t>
+          <t>MetTmBk</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 30 minute biking time threshold</t>
+          <t>Biking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
+          <t>Biking time (minutes) to nearest methadone provider</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="N70" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
+          <t>148.18</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R70" t="inlineStr">
+      <c r="S70" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5515,52 +5633,53 @@
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>MetTmBk</t>
-        </is>
-      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Methadone Provider</t>
+          <t>MetCntBk60</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Biking time (minutes) to nearest methadone provider</t>
+          <t>Count of Methadone Providers (60-min bike)</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
+          <t>Count of methadone providers in 60 minute biking time threshold</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="N71" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>148.18</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R71" t="inlineStr">
+      <c r="S71" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5582,52 +5701,53 @@
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>MetCntBk60</t>
-        </is>
-      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (60-min bike)</t>
+          <t>MetCntBk30</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 60 minute biking time threshold</t>
+          <t>Count of methadone providers (30-min bike)</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
+          <t>Count of methadone providers in 30 minute biking time threshold</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="M72" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="N72" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="P72" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr">
+      <c r="Q72" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr">
+      <c r="R72" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr">
+      <c r="S72" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5648,53 +5768,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>MetCntBk30</t>
-        </is>
-      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Count of methadone providers (30-min bike)</t>
+          <t>NalTmBk</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 30 minute biking time threshold</t>
+          <t>Biking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
+          <t>Biking time (minutes) to nearest naltrexone provider</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
+      <c r="N73" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
+          <t>165.18</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R73" t="inlineStr">
+      <c r="S73" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5716,52 +5841,53 @@
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>NalTmBk</t>
-        </is>
-      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Naltrexone Provider</t>
+          <t>NalCntBk60</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Biking time (minutes) to nearest naltrexone provider</t>
+          <t>Count of Naltrexone Providers (60-min bike)</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
+          <t>Count of naltrexone providers in 60 minute biking time threshold</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="N74" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>165.18</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R74" t="inlineStr">
+      <c r="S74" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5783,52 +5909,53 @@
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>NalCntBk60</t>
-        </is>
-      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (60-min bike)</t>
+          <t>NalCntBk30</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 60 minute biking time threshold</t>
+          <t>Count of Naltrexone Providers (30-min bike)</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
+          <t>Count of naltrexone providers in 30 minute biking time threshold</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="M75" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
+      <c r="N75" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="P75" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr">
+      <c r="Q75" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr">
+      <c r="R75" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R75" t="inlineStr">
+      <c r="S75" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5850,54 +5977,55 @@
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>NalCntBk30</t>
-        </is>
-      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min bike)</t>
+          <t>MhMinDis</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 30 minute biking time threshold</t>
+          <t>Distance (mi) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest mental health provider, in miles</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>integer</t>
+          <t>SAMHSA, 2020</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
       </c>
     </row>
@@ -5916,53 +6044,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>MhMinDis</t>
-        </is>
-      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Mental Health Provider</t>
+          <t>MhTmDr</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest mental health provider, in miles</t>
+          <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip mental health provider destination centroid, in minutes</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="M77" t="inlineStr">
         <is>
           <t>SAMHSA, 2020</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="N77" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="P77" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
       <c r="Q77" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R77" t="inlineStr">
+      <c r="S77" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -5984,52 +6117,53 @@
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>MhTmDr</t>
-        </is>
-      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Mental Health Provider</t>
+          <t>MhCntDr</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip mental health provider destination centroid, in minutes</t>
+          <t>Count of Mental Health Providers (30-min drive)</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
+          <t>Count of MH providers within a 30-minute driving threshold</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="M78" t="inlineStr">
         <is>
           <t>SAMHSA, 2020</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="N78" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R78" t="inlineStr">
+      <c r="S78" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6051,52 +6185,53 @@
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>MhCntDr</t>
-        </is>
-      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Count of Mental Health Providers (30-min drive)</t>
+          <t>OtpMinDis</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Count of MH providers within a 30-minute driving threshold</t>
+          <t>Distance (mi) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest OTP service location, in miles</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>integer</t>
+          <t>SAMSHA, 2021</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
+          <t>13.12</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R79" t="inlineStr">
+      <c r="S79" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6117,53 +6252,54 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>OtpMinDis</t>
-        </is>
-      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Opioid Treatment Program (OTP)</t>
+          <t>OtpTmDr</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest OTP service location, in miles</t>
+          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip OTP destination centroid, in minutes</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>SAMSHA, 2021</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="N80" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="P80" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>13.12</t>
-        </is>
-      </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6185,48 +6321,49 @@
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>OtpTmDr</t>
-        </is>
-      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
+          <t>OtpCntDr</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip OTP destination centroid, in minutes</t>
+          <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
+          <t>Count of OTPs within a 30-minute driving threshold</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="M81" t="inlineStr">
         <is>
           <t>SAMSHA, 2021</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
+      <c r="N81" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>27.39</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr">
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6248,48 +6385,53 @@
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>OtpCntDr</t>
-        </is>
-      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
+          <t>RxMinDis</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Count of OTPs within a 30-minute driving threshold</t>
+          <t>Distance (mi) to nearest Pharmacy</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest pharmacy, in miles</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>SAMSHA, 2021</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>integer</t>
+          <t>InfoGroup, 2019</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr"/>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
       <c r="R82" t="inlineStr">
+        <is>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6310,53 +6452,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>RxMinDis</t>
-        </is>
-      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Pharmacy</t>
+          <t>RxTmDr</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest pharmacy, in miles</t>
+          <t xml:space="preserve">Driving Time (min) to nearest Pharmacy </t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip pharmacy destination centroid, in minutes</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="M83" t="inlineStr">
         <is>
           <t>InfoGroup, 2019</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
+      <c r="N83" t="inlineStr">
         <is>
           <t>InfoGroup, 2019</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr">
+      <c r="P83" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
       <c r="Q83" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R83" t="inlineStr">
+      <c r="S83" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6378,52 +6525,53 @@
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>RxTmDr</t>
-        </is>
-      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Driving Time (min) to nearest Pharmacy </t>
+          <t>RxCntDr</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip pharmacy destination centroid, in minutes</t>
+          <t>Count of Pharmacies (30-min drive)</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
+          <t>Count of pharmacies within a 30-minute driving threshold</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="M84" t="inlineStr">
         <is>
           <t>InfoGroup, 2019</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
+      <c r="N84" t="inlineStr">
         <is>
           <t>InfoGroup, 2019</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R84" t="inlineStr">
+      <c r="S84" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6445,52 +6593,53 @@
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>RxCntDr</t>
-        </is>
-      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Count of Pharmacies (30-min drive)</t>
+          <t>SutMinDis</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Count of pharmacies within a 30-minute driving threshold</t>
+          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest SUT service location, in miles</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>integer</t>
+          <t>SAMHSA, 2020</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R85" t="inlineStr">
+      <c r="S85" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6511,53 +6660,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>SutMinDis</t>
-        </is>
-      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
+          <t>SutTmDr</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest SUT service location, in miles</t>
+          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip SUT destination centroid, in minutes</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="M86" t="inlineStr">
         <is>
           <t>SAMHSA, 2020</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
+      <c r="N86" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr">
+      <c r="P86" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
       <c r="Q86" t="inlineStr">
         <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R86" t="inlineStr">
+      <c r="S86" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6579,52 +6733,53 @@
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>SutTmDr</t>
-        </is>
-      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
+          <t>SutCntDr</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip SUT destination centroid, in minutes</t>
+          <t>Count of Substance Use Treatment (SUT) facility (30-min drive)</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
+          <t>Count of SUT services within a 30-minute driving threshold</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="M87" t="inlineStr">
         <is>
           <t>SAMHSA, 2020</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr">
+      <c r="N87" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>17.76</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R87" t="inlineStr">
+      <c r="S87" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6646,52 +6801,53 @@
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>SutCntDr</t>
-        </is>
-      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Count of Substance Use Treatment (SUT) facility (30-min drive)</t>
+          <t>HospMinDis</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Count of SUT services within a 30-minute driving threshold</t>
+          <t>Distance (mi) to nearest Hospital</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest hospital, in miles</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>integer</t>
+          <t>CovidCareMap, 2020</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R88" t="inlineStr">
+      <c r="S88" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6712,53 +6868,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>HospMinDis</t>
-        </is>
-      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Hospital</t>
+          <t>HospTmDr</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest hospital, in miles</t>
+          <t>Driving time (min) to nearest Hospital</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip hospital destination centroid, in minutes</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="M89" t="inlineStr">
         <is>
           <t>CovidCareMap, 2020</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
+      <c r="N89" t="inlineStr">
         <is>
           <t>CovidCareMap, 2020</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr">
+      <c r="P89" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
       <c r="Q89" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R89" t="inlineStr">
+      <c r="S89" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6780,52 +6941,53 @@
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>HospTmDr</t>
-        </is>
-      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Driving time (min) to nearest Hospital</t>
+          <t>HospCntDr</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip hospital destination centroid, in minutes</t>
+          <t>Count of Hospitals (30-min drive)</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
+          <t>Count of hospitals within a 30-minute driving threshold</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="M90" t="inlineStr">
         <is>
           <t>CovidCareMap, 2020</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr">
+      <c r="N90" t="inlineStr">
         <is>
           <t>CovidCareMap, 2020</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R90" t="inlineStr">
+      <c r="S90" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6847,56 +7009,54 @@
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>HospCntDr</t>
-        </is>
-      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Count of Hospitals (30-min drive)</t>
+          <t>AlcTot</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Count of hospitals within a 30-minute driving threshold</t>
+          <t>Total Alcohol Outlets</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
+          <t>Total number of alcohol outlets</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
+          <t>InfoGroup, 2018</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+          <t>421</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
+The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6914,53 +7074,54 @@
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>AlcTot</t>
-        </is>
-      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Total Alcohol Outlets</t>
+          <t>AlcDens</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Total number of alcohol outlets</t>
+          <t>Alcohol Outlets Density</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
+          <t>Number of alcohol outlets per square mile</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="M92" t="inlineStr">
         <is>
           <t>InfoGroup, 2018</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
+      <c r="N92" t="inlineStr">
         <is>
           <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
         <is>
           <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
 The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
         </is>
       </c>
-      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6978,53 +7139,54 @@
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>AlcDens</t>
-        </is>
-      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Alcohol Outlets Density</t>
+          <t>AlcPerCap</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Number of alcohol outlets per square mile</t>
+          <t>Alcohol Outlets per Capita</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
+          <t>Number of alcohol outlets per capita</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="M93" t="inlineStr">
         <is>
           <t>InfoGroup, 2018</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr">
+      <c r="N93" t="inlineStr">
         <is>
           <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
-      <c r="O93" t="inlineStr">
+      <c r="P93" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="Q93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
         <is>
           <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
 The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
         </is>
       </c>
-      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7032,10 +7194,26 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F94" t="inlineStr">
         <is>
           <t>x</t>
@@ -7044,51 +7222,55 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>AlcPerCap</t>
+          <t>x</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Alcohol Outlets per Capita</t>
+          <t>TotUnits</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Number of alcohol outlets per capita</t>
+          <t>Total Occupied Housing Units</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>Count of total occupied housing units</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>InfoGroup, 2018</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>number</t>
+          <t>ACS 2018, 5-Year; Census 2010; Social Explorer</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012; Social Explorer Historic Census Data on 2010 Geometries</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
-        </is>
-      </c>
-      <c r="R94" t="inlineStr"/>
+          <t>874237</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7121,57 +7303,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>TotUnits</t>
+          <t>x</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Total Occupied Housing Units</t>
+          <t>VacantP</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Count of total occupied housing units</t>
+          <t>Vacant Housing Units %</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
+          <t>Percentage of vacant housing units</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>ACS 2018, 5-Year; Census 2010; Social Explorer</t>
-        </is>
-      </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012; Social Explorer Historic Census Data on 2010 Geometries</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>integer</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5 Year Estimate; Social Explorer Historic Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>874237</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
           <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
         </is>
       </c>
-      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7179,82 +7362,59 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VacantP</t>
-        </is>
-      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Vacant Housing Units %</t>
+          <t>MobileP</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Percentage of vacant housing units</t>
+          <t>Mobile Homes %</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
+          <t>Percentage of total housing units categorized as mobile housing structures</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
-        </is>
-      </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5 Year Estimate; Social Explorer Historic Data on 2010 Geographies</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
+          <t>ACS 2018, 5-Year</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>American Community Survey 2014-2018 5 Year Estimate</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>13.28</t>
-        </is>
-      </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7272,48 +7432,49 @@
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>MobileP</t>
-        </is>
-      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Mobile Homes %</t>
+          <t>LngTermP</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Percentage of total housing units categorized as mobile housing structures</t>
+          <t>Long-Term Occupancy %</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
+          <t>Percentage of population who moved into their current housing more than 20 years ago</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="M97" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
+      <c r="N97" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate</t>
         </is>
       </c>
-      <c r="O97" t="inlineStr">
+      <c r="P97" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>19.99</t>
+        </is>
+      </c>
       <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7331,48 +7492,49 @@
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>LngTermP</t>
-        </is>
-      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Long-Term Occupancy %</t>
+          <t>RentalP</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Percentage of population who moved into their current housing more than 20 years ago</t>
+          <t>Rentals %</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
+          <t>Percentage of occupied housing units that are rented</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="M98" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr">
+      <c r="N98" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate</t>
         </is>
       </c>
-      <c r="O98" t="inlineStr">
+      <c r="P98" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>19.99</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
       <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7390,48 +7552,49 @@
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>RentalP</t>
-        </is>
-      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Rentals %</t>
+          <t>UnitDens</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Percentage of occupied housing units that are rented</t>
+          <t>Housing Unit Density</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
+          <t>Number of housing units per square mile of land area</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="M99" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr">
+      <c r="N99" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate</t>
         </is>
       </c>
-      <c r="O99" t="inlineStr">
+      <c r="P99" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>37.28</t>
-        </is>
-      </c>
-      <c r="Q99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>46.11</t>
+        </is>
+      </c>
       <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7449,48 +7612,49 @@
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>UnitDens</t>
-        </is>
-      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Housing Unit Density</t>
+          <t>NoIntP</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Number of housing units per square mile of land area</t>
+          <t>Households without Internet Access %</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
+          <t>Percentage of Households without Internet access</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Internet_2019.md</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
+          <t>ACS, 2019</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>American Community Survey 2015-2019 5 Year Estimate</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>46.11</t>
-        </is>
-      </c>
-      <c r="Q100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
       <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7508,48 +7672,53 @@
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>NoIntP</t>
-        </is>
-      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Households without Internet Access %</t>
+          <t>Ndvi</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Percentage of Households without Internet access</t>
+          <t>NDVI Average</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Internet_2019.md</t>
+          <t>Average normalized difference vegetation index, a measure of greenness used to determine the amount of vegetation in an area, value from all pixel values in each Census tract</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>ACS, 2019</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/NDVI.md</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>American Community Survey 2015-2019 5 Year Estimate</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
+          <t>Sentinel-2 MSI, 2018</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Sentinel 2 MSI: MultiSpectral Instrument Level-1 C</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>Despite removing identified influences of cloud interferences, there may still be clouds or other atmospheric conditions that alter pixel values used in calculations. See the original source for greater documentation of these effects. Furthermore, summarizing NDVI to the census tract simplifies inter-census tract variability.</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7567,52 +7736,49 @@
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Ndvi</t>
-        </is>
-      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>NDVI Average</t>
+          <t>Ruca1</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Average normalized difference vegetation index, a measure of greenness used to determine the amount of vegetation in an area, value from all pixel values in each Census tract</t>
+          <t>Primary RUCA Code</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/NDVI.md</t>
+          <t>Primary RUCA Code</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Sentinel-2 MSI, 2018</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Sentinel 2 MSI: MultiSpectral Instrument Level-1 C</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>number</t>
+          <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>string</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>Despite removing identified influences of cloud interferences, there may still be clouds or other atmospheric conditions that alter pixel values used in calculations. See the original source for greater documentation of these effects. Furthermore, summarizing NDVI to the census tract simplifies inter-census tract variability.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7630,48 +7796,49 @@
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Ruca1</t>
-        </is>
-      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Primary RUCA Code</t>
+          <t>Ruca2</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Primary RUCA Code</t>
+          <t>Secondary RUCA Code</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
+          <t>Secondary RUCA Code</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="M103" t="inlineStr">
         <is>
           <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr">
+      <c r="N103" t="inlineStr">
         <is>
           <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
-      <c r="O103" t="inlineStr">
+      <c r="P103" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
       <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7688,60 +7855,81 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Ruca2</t>
-        </is>
-      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Secondary RUCA Code</t>
+          <t>Rurality</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Secondary RUCA Code</t>
+          <t>Urban-Suburban-Rural</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
+          <t>Urban/Suburban/Rural</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
         </is>
       </c>
-      <c r="L104" t="inlineStr">
+      <c r="M104" t="inlineStr">
         <is>
           <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr">
+      <c r="N104" t="inlineStr">
         <is>
           <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
-      <c r="O104" t="inlineStr">
+      <c r="P104" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="Q104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
       <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Environment</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F105" t="inlineStr">
         <is>
           <t>x</t>
@@ -7750,46 +7938,59 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rurality</t>
+          <t>x</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Urban-Suburban-Rural</t>
+          <t>PovP</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural</t>
+          <t>Poverty %</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
+          <t>Number of individuals earning below the poverty income threshold as a percentage of the total population</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>string</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>16.6</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7822,57 +8023,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>PovP</t>
+          <t>x</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Poverty %</t>
+          <t>UnempP</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Number of individuals earning below the poverty income threshold as a percentage of the total population</t>
+          <t>Unemployment %</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
+          <t>The number of unemployed individuals as a percentage of the civilian labor force</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr">
+      <c r="M106" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr">
+      <c r="N106" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="O106" t="inlineStr">
+      <c r="P106" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>16.6</t>
-        </is>
-      </c>
       <c r="Q106" t="inlineStr">
         <is>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
           <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
         </is>
       </c>
-      <c r="R106" t="inlineStr">
+      <c r="S106" t="inlineStr">
         <is>
           <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
         </is>
@@ -7884,21 +8086,9 @@
           <t>Economic</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
           <t>x</t>
@@ -7909,61 +8099,50 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>UnempP</t>
-        </is>
-      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Unemployment %</t>
+          <t>MedInc</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>The number of unemployed individuals as a percentage of the civilian labor force</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
+          <t>Median income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
         </is>
       </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
-        </is>
-      </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>number</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
-        </is>
-      </c>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
-        </is>
-      </c>
+          <t>34148</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7985,48 +8164,49 @@
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>MedInc</t>
-        </is>
-      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Median Income</t>
+          <t>PciE</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Median income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
+          <t>Per Capita Income</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
+          <t>Per capita income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
         </is>
       </c>
-      <c r="L108" t="inlineStr">
+      <c r="M108" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr">
+      <c r="N108" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
-      <c r="O108" t="inlineStr">
+      <c r="P108" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>34148</t>
-        </is>
-      </c>
-      <c r="Q108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>36888</t>
+        </is>
+      </c>
       <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -8048,48 +8228,49 @@
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>PciE</t>
-        </is>
-      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Per Capita Income</t>
+          <t>GiniCoeff</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Per capita income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
           <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr">
+      <c r="N109" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>36888</t>
-        </is>
-      </c>
-      <c r="Q109" t="inlineStr"/>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
       <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8100,59 +8281,56 @@
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>GiniCoeff</t>
-        </is>
-      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>TotWrkE</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Count of Working Population</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
+          <t>Estimated count of working population</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>number</t>
+          <t>ACS 2018, 5-Year</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="Q110" t="inlineStr"/>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>3513856</t>
+        </is>
+      </c>
       <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8170,52 +8348,53 @@
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr">
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
         <is>
           <t>EduP</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
+      <c r="J111" t="inlineStr">
         <is>
           <t>Employed % - Education</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>Percentage of population employed in educational services industry</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr">
+      <c r="L111" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="M111" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr">
+      <c r="N111" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O111" t="inlineStr">
+      <c r="P111" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P111" t="inlineStr">
+      <c r="Q111" t="inlineStr">
         <is>
           <t>8.44</t>
         </is>
       </c>
-      <c r="Q111" t="inlineStr">
+      <c r="R111" t="inlineStr">
         <is>
           <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
         </is>
       </c>
-      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8233,52 +8412,53 @@
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr">
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
         <is>
           <t>HghRskP</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>Employed % - High Risk of Injury</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr">
+      <c r="K112" t="inlineStr">
         <is>
           <t>Percentage of population employed in following industries: agriculture, forestry, fishing and hunting, mining, quarrying, oil and gas extraction, construction, manufacturing, utilities</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr">
+      <c r="L112" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
-      <c r="L112" t="inlineStr">
+      <c r="M112" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr">
+      <c r="N112" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O112" t="inlineStr">
+      <c r="P112" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P112" t="inlineStr">
+      <c r="Q112" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Q112" t="inlineStr">
+      <c r="R112" t="inlineStr">
         <is>
           <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
         </is>
       </c>
-      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8296,52 +8476,53 @@
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr">
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
         <is>
           <t>HltCrP</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
+      <c r="J113" t="inlineStr">
         <is>
           <t>Employed % - Health Care</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr">
+      <c r="K113" t="inlineStr">
         <is>
           <t>Percentage of population employed in health care and social assistance industries</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="L113" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="M113" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr">
+      <c r="N113" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O113" t="inlineStr">
+      <c r="P113" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P113" t="inlineStr">
+      <c r="Q113" t="inlineStr">
         <is>
           <t>13.13</t>
         </is>
       </c>
-      <c r="Q113" t="inlineStr">
+      <c r="R113" t="inlineStr">
         <is>
           <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
         </is>
       </c>
-      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8359,52 +8540,53 @@
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr">
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
         <is>
           <t>RetailP</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>Employed % - Retail</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr">
+      <c r="K114" t="inlineStr">
         <is>
           <t>Percentage of population employed in retail trade industry</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr">
+      <c r="L114" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr">
+      <c r="M114" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr">
+      <c r="N114" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O114" t="inlineStr">
+      <c r="P114" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P114" t="inlineStr">
+      <c r="Q114" t="inlineStr">
         <is>
           <t>11.7</t>
         </is>
       </c>
-      <c r="Q114" t="inlineStr">
+      <c r="R114" t="inlineStr">
         <is>
           <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
         </is>
       </c>
-      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8422,48 +8604,49 @@
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr">
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
         <is>
           <t>EssnWrkE</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>Count of Essential Workers</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
+      <c r="K115" t="inlineStr">
         <is>
           <t>Estimated count of population employed in essential occupations.</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr">
+      <c r="L115" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byOccupation_2018.md</t>
         </is>
       </c>
-      <c r="L115" t="inlineStr">
+      <c r="M115" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr">
+      <c r="N115" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O115" t="inlineStr">
+      <c r="P115" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P115" t="inlineStr">
+      <c r="Q115" t="inlineStr">
         <is>
           <t>1509709</t>
         </is>
       </c>
-      <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8481,48 +8664,49 @@
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr">
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
         <is>
           <t>EssnWrkP</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>Essential Workers %</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>Percentage of population employed in essential occupations.</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr">
+      <c r="L116" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byOccupation_2018.md</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr">
+      <c r="M116" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr">
+      <c r="N116" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O116" t="inlineStr">
+      <c r="P116" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P116" t="inlineStr">
+      <c r="Q116" t="inlineStr">
         <is>
           <t>42.96</t>
         </is>
       </c>
-      <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8539,53 +8723,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr">
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
         <is>
           <t>SviTh1</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>Social Vulnerability Index (SVI) 1</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr">
+      <c r="K117" t="inlineStr">
         <is>
           <t>SVI Ranking, Theme 1: Socioeconomic</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr">
+      <c r="L117" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI_2018.md</t>
         </is>
       </c>
-      <c r="L117" t="inlineStr">
+      <c r="M117" t="inlineStr">
         <is>
           <t>CDC, 2018</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr">
+      <c r="N117" t="inlineStr">
         <is>
           <t>Centers for Disease Control, 2018</t>
         </is>
       </c>
-      <c r="O117" t="inlineStr">
+      <c r="P117" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P117" t="inlineStr">
+      <c r="Q117" t="inlineStr">
         <is>
           <t>0.43</t>
         </is>
       </c>
-      <c r="Q117" t="inlineStr">
+      <c r="R117" t="inlineStr">
         <is>
           <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
         </is>
       </c>
-      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8603,52 +8792,53 @@
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr">
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
         <is>
           <t>SviTh2</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr">
+      <c r="J118" t="inlineStr">
         <is>
           <t>Social Vulnerability Index (SVI) 2</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr">
+      <c r="K118" t="inlineStr">
         <is>
           <t>SVI Ranking, Theme 2: Household Composition &amp; Disability</t>
         </is>
       </c>
-      <c r="K118" t="inlineStr">
+      <c r="L118" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI_2018.md</t>
         </is>
       </c>
-      <c r="L118" t="inlineStr">
+      <c r="M118" t="inlineStr">
         <is>
           <t>CDC, 2018</t>
         </is>
       </c>
-      <c r="M118" t="inlineStr">
+      <c r="N118" t="inlineStr">
         <is>
           <t>Centers for Disease Control, 2018</t>
         </is>
       </c>
-      <c r="O118" t="inlineStr">
+      <c r="P118" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P118" t="inlineStr">
+      <c r="Q118" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="Q118" t="inlineStr">
+      <c r="R118" t="inlineStr">
         <is>
           <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
         </is>
       </c>
-      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8666,52 +8856,53 @@
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr">
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
         <is>
           <t>SviTh3</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr">
+      <c r="J119" t="inlineStr">
         <is>
           <t>Social Vulnerability Index (SVI) 3</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr">
+      <c r="K119" t="inlineStr">
         <is>
           <t>SVI Ranking, Theme 3: Minority Status &amp; Language</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr">
+      <c r="L119" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI_2018.md</t>
         </is>
       </c>
-      <c r="L119" t="inlineStr">
+      <c r="M119" t="inlineStr">
         <is>
           <t>CDC, 2018</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr">
+      <c r="N119" t="inlineStr">
         <is>
           <t>Centers for Disease Control, 2018</t>
         </is>
       </c>
-      <c r="O119" t="inlineStr">
+      <c r="P119" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P119" t="inlineStr">
+      <c r="Q119" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="Q119" t="inlineStr">
+      <c r="R119" t="inlineStr">
         <is>
           <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
         </is>
       </c>
-      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8728,53 +8919,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr">
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
         <is>
           <t>SviTh4</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>Social Vulnerability Index (SVI) 4</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>SVI Ranking, Theme 4: Housing Type &amp; Transportation</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr">
+      <c r="L120" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI_2018.md</t>
         </is>
       </c>
-      <c r="L120" t="inlineStr">
+      <c r="M120" t="inlineStr">
         <is>
           <t>CDC, 2018</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr">
+      <c r="N120" t="inlineStr">
         <is>
           <t>Centers for Disease Control, 2018</t>
         </is>
       </c>
-      <c r="O120" t="inlineStr">
+      <c r="P120" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P120" t="inlineStr">
+      <c r="Q120" t="inlineStr">
         <is>
           <t>0.61</t>
         </is>
       </c>
-      <c r="Q120" t="inlineStr">
+      <c r="R120" t="inlineStr">
         <is>
           <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
         </is>
       </c>
-      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8792,52 +8988,53 @@
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr">
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
         <is>
           <t>SviSmryRnk</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
+      <c r="J121" t="inlineStr">
         <is>
           <t>Social Vulnerability Index (SVI) Summary Ranking</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr">
+      <c r="K121" t="inlineStr">
         <is>
           <t>Overall summary ranking</t>
         </is>
       </c>
-      <c r="K121" t="inlineStr">
+      <c r="L121" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI_2018.md</t>
         </is>
       </c>
-      <c r="L121" t="inlineStr">
+      <c r="M121" t="inlineStr">
         <is>
           <t>CDC, 2018</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr">
+      <c r="N121" t="inlineStr">
         <is>
           <t>Centers for Disease Control, 2018</t>
         </is>
       </c>
-      <c r="O121" t="inlineStr">
+      <c r="P121" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P121" t="inlineStr">
+      <c r="Q121" t="inlineStr">
         <is>
           <t>0.38</t>
         </is>
       </c>
-      <c r="Q121" t="inlineStr">
+      <c r="R121" t="inlineStr">
         <is>
           <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
         </is>
       </c>
-      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/oeps/data/dictionaries/Z_Dict.xlsx
+++ b/backend/oeps/data/dictionaries/Z_Dict.xlsx
@@ -557,75 +557,64 @@
           <t>Geography</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HEROP_ID</t>
+          <t>AreaSqMi</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>HEROP_ID</t>
+          <t>Land Area (Square Miles)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>A derived unique id corresponding to the relevant geographic unit.</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+          <t>Land area of geography in sq miles</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Healthy Regions &amp; Policies Lab, UIUC</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+          <t>InfoGroup, 2018</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>050US01001-2018</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>The HEROP_ID is generated as follows: Summary Level Code + "US" + GEOID + “-” + Year</t>
-        </is>
-      </c>
+          <t>66452.74</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
+The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -666,23 +655,27 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>GEOID</t>
+          <t>HEROP_ID</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>GEOID</t>
+          <t>HEROP_ID</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Unique identifer for the geography unit to which this value should be attached</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+          <t>A derived unique id corresponding to the relevant geographic unit.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Geographic_Boundaries.md</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Tiger/Line 2018; Tiger/Line 2010</t>
+          <t>Healthy Regions &amp; Policies Lab, UIUC</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -693,11 +686,15 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>36061</t>
+          <t>050US01001-2018</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>The HEROP_ID is generated as follows: Summary Level Code + "US" + GEOID</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -705,63 +702,74 @@
           <t>Geography</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>AreaSqMi</t>
+          <t>GEOID</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Land Area (Square Miles)</t>
+          <t>GEOID</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Land area of geography in sq miles</t>
+          <t>Unique identifer for the geography unit to which this value should be attached</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Geographic_Boundaries.md</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>InfoGroup, 2018</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
-        </is>
-      </c>
+          <t>Tiger/Line 2018; Tiger/Line 2010</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>66452.74</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
-        </is>
-      </c>
+          <t>36061</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -6465,7 +6473,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Driving Time (min) to nearest Pharmacy </t>
+          <t>Driving Time (min) to nearest Pharmacy</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">

--- a/backend/oeps/data/dictionaries/Z_Dict.xlsx
+++ b/backend/oeps/data/dictionaries/Z_Dict.xlsx
@@ -1080,18 +1080,10 @@
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr">
@@ -1101,17 +1093,17 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Ovr65P</t>
+          <t>Age18_64</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>% Population: Age 65+</t>
+          <t>Population: Age 18-64</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Percentage of population over 65</t>
+          <t>Total adult population under age 65</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1131,12 +1123,12 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15.77</t>
+          <t>1139347</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1152,43 +1144,63 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>FemP</t>
+          <t>Age0_4</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>% Population that is Female</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr"/>
+          <t>Population: Age 0-4</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Total population between age 0-4</t>
+        </is>
+      </c>
       <c r="W7" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -1196,25 +1208,29 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr"/>
+          <t>79897</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
       <c r="AD7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1223,43 +1239,63 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>MaleP</t>
+          <t>Age5_14</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>% Population that is Male</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr"/>
+          <t>Population: Age 5-14</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Total population between age 5-14</t>
+        </is>
+      </c>
       <c r="W8" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -1267,25 +1303,29 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr"/>
+          <t>122034</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
       <c r="AD8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1294,43 +1334,63 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>MedAge</t>
+          <t>Age15_19</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>Median age</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr"/>
+          <t>Population: Age 15-19</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Total population between age 15-19</t>
+        </is>
+      </c>
       <c r="W9" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -1338,25 +1398,29 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr"/>
+          <t>68706</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
       <c r="AD9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -1365,43 +1429,63 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Ovr16P</t>
+          <t>Age20_24</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>% Population over 16 years</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr"/>
+          <t>Population: Age 20-24</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Total population between age 20-24</t>
+        </is>
+      </c>
       <c r="W10" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -1409,25 +1493,29 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr"/>
+          <t>114772</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
       <c r="AD10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -1436,43 +1524,63 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Ovr18P</t>
+          <t>Age15_44</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>% Population over 18 years</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr"/>
+          <t>Population: Age 15-44</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Total population between age 15-44</t>
+        </is>
+      </c>
       <c r="W11" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -1480,25 +1588,29 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr"/>
+          <t>784568</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
       <c r="AD11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1507,43 +1619,63 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Ovr21P</t>
+          <t>Age55_59</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>% Population over 21 years</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr"/>
+          <t>Population: Age 55-59</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Total population between age 55-59</t>
+        </is>
+      </c>
       <c r="W12" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -1551,25 +1683,29 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr"/>
+          <t>94082</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
       <c r="AD12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -1578,43 +1714,63 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Ovr62P</t>
+          <t>Age60_64</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>% Population over 62 years</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr"/>
+          <t>Population: Age 60-64</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Total population between age 60-64</t>
+        </is>
+      </c>
       <c r="W13" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -1622,25 +1778,29 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr"/>
+          <t>90711</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
       <c r="AD13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1649,43 +1809,63 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>SRatio</t>
+          <t>AgeOv65</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>Sex ratio for the total population (males per 100 females)</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr"/>
+          <t>Population: Age 65+</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Total population at or over age 65</t>
+        </is>
+      </c>
       <c r="W14" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -1693,25 +1873,29 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr"/>
+          <t>257362</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
       <c r="AD14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1720,43 +1904,63 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>SRatio18</t>
+          <t>Und45P</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>Sex ratio among adults aged 18 and older (males per 100 females)</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr"/>
+          <t>% Population: Age under 45</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	Percentage of population below 45 years of age</t>
+        </is>
+      </c>
       <c r="W15" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -1764,12 +1968,12 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -1779,10 +1983,14 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr"/>
+          <t>60.43</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
       <c r="AD15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1791,16 +1999,36 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
@@ -1816,18 +2044,26 @@
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>SRatio65</t>
+          <t>Ovr65P</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>Sex ratio among seniors aged 65 and older (males per 100 females)</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr"/>
+          <t>% Population: Age 65+</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Percentage of population over 65</t>
+        </is>
+      </c>
       <c r="W16" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -1835,12 +2071,12 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -1850,10 +2086,14 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr"/>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
       <c r="AD16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1862,43 +2102,63 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>Und18P</t>
+          <t>ChildrenP</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>% Population under 18 years old</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr"/>
+          <t>Children %</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Percentage of population under age 18</t>
+        </is>
+      </c>
       <c r="W17" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -1906,12 +2166,12 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -1921,10 +2181,14 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr"/>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
       <c r="AD17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1934,42 +2198,54 @@
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Und5P</t>
+          <t>Age45_49</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t xml:space="preserve">% Population under 5 years old </t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr"/>
+          <t>Population: Age 45-49</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Total population between age 45-49</t>
+        </is>
+      </c>
       <c r="W18" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -1977,26 +2253,30 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; 2010 Decennial Census; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>467768</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>1990 and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and aggregated upwards.</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2004,11 +2284,7 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>x</t>
@@ -2041,24 +2317,20 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t>Age18_64</t>
+          <t>Age50_54</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>Population: Age 18-64</t>
+          <t>Population: Age 50-54</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Total adult population under age 65</t>
+          <t>Total population between age 50-54</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -2068,30 +2340,30 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year; 2010 Decennial Census; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>1139347</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr"/>
+          <t>476486</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>1990 and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and aggregated upwards.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2099,21 +2371,9 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>x</t>
@@ -2136,24 +2396,20 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Age0_4</t>
+          <t>AgeOv18</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>Population: Age 0-4</t>
+          <t>Population: Age 18+</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Total population between age 0-4</t>
+          <t>Total population at or over age 18</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -2163,29 +2419,25 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year; 2010 Decennial Census</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>79897</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
+          <t>5661461</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -2194,26 +2446,10 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -2238,17 +2474,17 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Age5_14</t>
+          <t>A15_24P</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Population: Age 5-14</t>
+          <t>% Population: Age 15-24</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Total population between age 5-14</t>
+          <t>Percentage of population between ages of 15 &amp; 24</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -2263,25 +2499,25 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey 2014-2018 5-Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>122034</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr"/>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>1980, 1990, and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and crosswalked to 2010 census tracts using the Longitudinal Tract Database crosswalk files. They were then crosswalked to 2010 ZIPs using the 2012 1st quarter TRACT-ZIP crosswalk from Housing and Urban Development. For more on the tract crosswalk files, see https://s4.ad.brown.edu/Projects/Diversity/researcher/bridging.htm. For more on the TRACT-ZIP crosswalk, see https://www.huduser.gov/portal/datasets/usps_crosswalk.html</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2289,63 +2525,43 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Age15_19</t>
+          <t>FemP</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>Population: Age 15-19</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>Total population between age 15-19</t>
-        </is>
-      </c>
+          <t>% Population that is Female</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -2353,29 +2569,25 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>68706</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -2384,63 +2596,43 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
-          <t>Age20_24</t>
+          <t>MaleP</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>Population: Age 20-24</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>Total population between age 20-24</t>
-        </is>
-      </c>
+          <t>% Population that is Male</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -2448,29 +2640,25 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>114772</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2479,63 +2667,43 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
-          <t>Age15_44</t>
+          <t>MedAge</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>Population: Age 15-44</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>Total population between age 15-44</t>
-        </is>
-      </c>
+          <t>Median age</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -2543,29 +2711,25 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>784568</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -2574,63 +2738,43 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Age55_59</t>
+          <t>Ovr16P</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>Population: Age 55-59</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>Total population between age 55-59</t>
-        </is>
-      </c>
+          <t>% Population over 16 years</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -2638,29 +2782,25 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>94082</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2669,63 +2809,43 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr">
         <is>
-          <t>Age60_64</t>
+          <t>Ovr18P</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>Population: Age 60-64</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>Total population between age 60-64</t>
-        </is>
-      </c>
+          <t>% Population over 18 years</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -2733,29 +2853,25 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>90711</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -2764,63 +2880,43 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
-          <t>AgeOv65</t>
+          <t>Ovr21P</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>Population: Age 65+</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Total population at or over age 65</t>
-        </is>
-      </c>
+          <t>% Population over 21 years</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -2828,29 +2924,25 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>257362</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -2859,63 +2951,43 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
-          <t>Und45P</t>
+          <t>Ovr62P</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>% Population: Age under 45</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	Percentage of population below 45 years of age</t>
-        </is>
-      </c>
+          <t>% Population over 62 years</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -2923,12 +2995,12 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -2938,14 +3010,10 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>60.43</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -2954,63 +3022,43 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
-          <t>ChildrenP</t>
+          <t>SRatio</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>Children %</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>Percentage of population under age 18</t>
-        </is>
-      </c>
+          <t>Sex ratio for the total population (males per 100 females)</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -3018,12 +3066,12 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3033,14 +3081,10 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -3050,54 +3094,42 @@
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
-          <t>Age45_49</t>
+          <t>SRatio18</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>Population: Age 45-49</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Total population between age 45-49</t>
-        </is>
-      </c>
+          <t>Sex ratio among adults aged 18 and older (males per 100 females)</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -3105,30 +3137,26 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; 2010 Decennial Census; IPUMS NHGIS</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>467768</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>1990 and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and aggregated upwards.</t>
-        </is>
-      </c>
+      <c r="AD30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3137,54 +3165,42 @@
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
-          <t>Age50_54</t>
+          <t>SRatio65</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>Population: Age 50-54</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Total population between age 50-54</t>
-        </is>
-      </c>
+          <t>Sex ratio among seniors aged 65 and older (males per 100 females)</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -3192,12 +3208,12 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; 2010 Decennial Census; IPUMS NHGIS</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3207,15 +3223,11 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>476486</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>1990 and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and aggregated upwards.</t>
-        </is>
-      </c>
+      <c r="AD31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3226,44 +3238,40 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
-          <t>AgeOv18</t>
+          <t>Und18P</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>Population: Age 18+</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Total population at or over age 18</t>
-        </is>
-      </c>
+          <t>% Population under 18 years old</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -3271,12 +3279,12 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; 2010 Decennial Census</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -3286,7 +3294,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>5661461</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr"/>
@@ -3307,38 +3315,34 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
-          <t>A15_24P</t>
+          <t>Und5P</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>% Population: Age 15-24</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>Percentage of population between ages of 15 &amp; 24</t>
-        </is>
-      </c>
+          <t xml:space="preserve">% Population under 5 years old </t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
@@ -3346,12 +3350,12 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5-Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -3361,15 +3365,11 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>1980, 1990, and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and crosswalked to 2010 census tracts using the Longitudinal Tract Database crosswalk files. They were then crosswalked to 2010 ZIPs using the 2012 1st quarter TRACT-ZIP crosswalk from Housing and Urban Development. For more on the tract crosswalk files, see https://s4.ad.brown.edu/Projects/Diversity/researcher/bridging.htm. For more on the TRACT-ZIP crosswalk, see https://www.huduser.gov/portal/datasets/usps_crosswalk.html</t>
-        </is>
-      </c>
+      <c r="AD33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5389,8 +5389,16 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>x</t>
@@ -5412,34 +5420,30 @@
         </is>
       </c>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>DisbP</t>
+          <t>NoHsP</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>% Population with Disability</t>
+          <t>% Population without High School Degree</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Percentage of civilian non institutionalized population with a disability</t>
+          <t>Percentage of population 25 years and over, less than a high school degree</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -5449,7 +5453,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -5464,15 +5468,15 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>12.7</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr">
-        <is>
-          <t>Data from 2000 Census downloaded at county level from NHGIS and aggregated upwards.</t>
-        </is>
-      </c>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
+      <c r="AD62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5480,16 +5484,8 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
           <t>x</t>
@@ -5511,30 +5507,34 @@
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
-          <t>NoHsP</t>
+          <t>DisbP</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>% Population without High School Degree</t>
+          <t>% Population with Disability</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Percentage of population 25 years and over, less than a high school degree</t>
+          <t>Percentage of civilian non institutionalized population with a disability</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -5559,15 +5559,15 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>13.01</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
-      <c r="AD63" t="inlineStr"/>
+          <t>12.7</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>Data from 2000 Census downloaded at county level from NHGIS and aggregated upwards.</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5812,18 +5812,10 @@
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr">
@@ -5833,17 +5825,17 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>AmIndP</t>
+          <t>HispP</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>% Native American/Alaska Native Population</t>
+          <t>% Hispanic/Latinx Population</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Native American or Alaska Native alone</t>
+          <t>Percentage of population with ethnicity identified as of Hispanic or Latinx origin</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -5868,7 +5860,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>25.95</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
@@ -5936,17 +5928,17 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>PacIsP</t>
+          <t>AmIndP</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>% Native Hawaiian &amp; Other PI Population</t>
+          <t>% Native American/Alaska Native Population</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Native Hawaiian and Other Pacific Islander alone</t>
+          <t>Percentage of population with race identified as Native American or Alaska Native alone</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
@@ -5971,7 +5963,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
@@ -6018,18 +6010,10 @@
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr">
@@ -6039,17 +6023,17 @@
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>OtherP</t>
+          <t>AsianP</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>% Other (race) Population</t>
+          <t>% Asian Population</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Percentage of Population with race not mentioned in any of the options above (includes two race or more races)</t>
+          <t>Percentage of population with race identified as Asian alone</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
@@ -6074,7 +6058,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>16.48</t>
+          <t>12.03</t>
         </is>
       </c>
       <c r="AC68" t="inlineStr">
@@ -6090,16 +6074,36 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
@@ -6115,18 +6119,26 @@
       </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>HisP</t>
+          <t>PacIsP</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>% Population with ethnicity identified as of Hispanic or Latinx origin</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr"/>
+          <t>% Native Hawaiian &amp; Other PI Population</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Percentage of population with race identified as Native Hawaiian and Other Pacific Islander alone</t>
+        </is>
+      </c>
       <c r="W69" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
@@ -6134,12 +6146,12 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -6149,10 +6161,14 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC69" t="inlineStr"/>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
       <c r="AD69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -6161,16 +6177,36 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
@@ -6186,18 +6222,26 @@
       </c>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>TwoRaceP</t>
+          <t>OtherP</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>% Population identifying as two or more races</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr"/>
+          <t>% Other (race) Population</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Percentage of Population with race not mentioned in any of the options above (includes two race or more races)</t>
+        </is>
+      </c>
       <c r="W70" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
@@ -6205,12 +6249,12 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -6220,10 +6264,14 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC70" t="inlineStr"/>
+          <t>16.48</t>
+        </is>
+      </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
       <c r="AD70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -6232,63 +6280,43 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr">
         <is>
-          <t>HispP</t>
+          <t>HisP</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>% Hispanic/Latinx Population</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>Percentage of population with ethnicity identified as of Hispanic or Latinx origin</t>
-        </is>
-      </c>
+          <t>% Population with ethnicity identified as of Hispanic or Latinx origin</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
@@ -6296,12 +6324,12 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -6311,14 +6339,10 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>25.95</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr"/>
       <c r="AD71" t="inlineStr"/>
     </row>
     <row r="72">
@@ -6327,63 +6351,43 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr">
         <is>
-          <t>AsianP</t>
+          <t>TwoRaceP</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>% Asian Population</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>Percentage of population with race identified as Asian alone</t>
-        </is>
-      </c>
+          <t>% Population identifying as two or more races</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
@@ -6391,12 +6395,12 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -6406,14 +6410,10 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>12.03</t>
-        </is>
-      </c>
-      <c r="AC72" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -8166,7 +8166,7 @@
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr">
         <is>
-          <t>NalMinDis</t>
+          <t>NaltMinDis</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
@@ -8253,7 +8253,7 @@
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr">
         <is>
-          <t>NalTmDr</t>
+          <t>NaltTmDr</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
@@ -8336,7 +8336,7 @@
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr">
         <is>
-          <t>NalCntDr30</t>
+          <t>NaltCntDr30</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
@@ -8929,7 +8929,7 @@
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr">
         <is>
-          <t>NalTmWk</t>
+          <t>NaltTmWk</t>
         </is>
       </c>
       <c r="U103" t="inlineStr">
@@ -9008,7 +9008,7 @@
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr">
         <is>
-          <t>NalCntWk60</t>
+          <t>NaltCntWk60</t>
         </is>
       </c>
       <c r="U104" t="inlineStr">
@@ -9091,7 +9091,7 @@
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr">
         <is>
-          <t>NalCntWk30</t>
+          <t>NaltCntWk30</t>
         </is>
       </c>
       <c r="U105" t="inlineStr">
@@ -9684,7 +9684,7 @@
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr">
         <is>
-          <t>NalTmBk</t>
+          <t>NaltTmBk</t>
         </is>
       </c>
       <c r="U112" t="inlineStr">
@@ -9767,7 +9767,7 @@
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr">
         <is>
-          <t>NalCntBk60</t>
+          <t>NaltCntBk60</t>
         </is>
       </c>
       <c r="U113" t="inlineStr">
@@ -9850,7 +9850,7 @@
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr">
         <is>
-          <t>NalCntBk30</t>
+          <t>NaltCntBk30</t>
         </is>
       </c>
       <c r="U114" t="inlineStr">
@@ -10000,7 +10000,7 @@
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr">
         <is>
-          <t>NalCntDr60</t>
+          <t>NaltCntDr60</t>
         </is>
       </c>
       <c r="U116" t="inlineStr">
@@ -13317,34 +13317,26 @@
         </is>
       </c>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
       <c r="S157" t="inlineStr"/>
       <c r="T157" t="inlineStr">
         <is>
-          <t>EssnWrkP</t>
+          <t>EssnWrkE</t>
         </is>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>Essential Workers %</t>
+          <t>Count of Essential Workers</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>Percentage of population employed in essential occupations.</t>
+          <t>Estimated count of population employed in essential occupations.</t>
         </is>
       </c>
       <c r="W157" t="inlineStr">
@@ -13364,12 +13356,12 @@
       </c>
       <c r="AA157" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB157" t="inlineStr">
         <is>
-          <t>42.96</t>
+          <t>1509709</t>
         </is>
       </c>
       <c r="AC157" t="inlineStr"/>
@@ -13396,26 +13388,34 @@
         </is>
       </c>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q158" t="inlineStr"/>
       <c r="R158" t="inlineStr"/>
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr">
         <is>
-          <t>EssnWrkE</t>
+          <t>EssnWrkP</t>
         </is>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>Count of Essential Workers</t>
+          <t>Essential Workers %</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>Estimated count of population employed in essential occupations.</t>
+          <t>Percentage of population employed in essential occupations.</t>
         </is>
       </c>
       <c r="W158" t="inlineStr">
@@ -13435,12 +13435,12 @@
       </c>
       <c r="AA158" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB158" t="inlineStr">
         <is>
-          <t>1509709</t>
+          <t>42.96</t>
         </is>
       </c>
       <c r="AC158" t="inlineStr"/>

--- a/backend/oeps/data/dictionaries/Z_Dict.xlsx
+++ b/backend/oeps/data/dictionaries/Z_Dict.xlsx
@@ -827,55 +827,23 @@
           <t>Geography</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
           <t>x</t>
@@ -899,17 +867,17 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>GEOID</t>
+          <t>ZCTA5</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>GEOID</t>
+          <t>Zip Code Tabulation Area</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Unique identifer for the geography unit to which this value should be attached</t>
+          <t>Census Bureau designated zip code tabulation area, or the rough area that contains five digit zip codes.</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -930,7 +898,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>36061</t>
+          <t>60637</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr"/>
